--- a/Data/NF_MCMC Data.xlsx
+++ b/Data/NF_MCMC Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Kelly\Dropbox\Documents\BTE\Yingling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D65A38-75AE-4A60-8F78-0316F11A7AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE081F78-26B2-4E47-BD00-41C688D59446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="2112" windowWidth="19068" windowHeight="12372" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -928,226 +928,226 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="171"/>
                 <c:pt idx="0">
-                  <c:v>2.0500724636041733E-3</c:v>
+                  <c:v>4.6231450266989924E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5350463763200239E-2</c:v>
+                  <c:v>5.7708813971713034E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7907679558850894E-2</c:v>
+                  <c:v>3.3228012428054621E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8186525718633768E-2</c:v>
+                  <c:v>3.5312199676015739E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2426182442541676E-2</c:v>
+                  <c:v>2.2201589907796686E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0570362970060621E-2</c:v>
+                  <c:v>6.8496804000152844E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.842346464482823E-2</c:v>
+                  <c:v>4.4438298258269254E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.519712516211357E-2</c:v>
+                  <c:v>4.738920772557241E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2732913482100149E-2</c:v>
+                  <c:v>4.8705446825733273E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5124139281464568E-2</c:v>
+                  <c:v>3.9585343337519507E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6795191172241501E-2</c:v>
+                  <c:v>8.4081993882288666E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7450523681287682E-2</c:v>
+                  <c:v>7.9007771194532631E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9731838368302805E-2</c:v>
+                  <c:v>6.7078213890452071E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6372957495712191E-2</c:v>
+                  <c:v>5.6697772288874564E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1497957329559326E-2</c:v>
+                  <c:v>5.5994587503937245E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4961075824785888E-2</c:v>
+                  <c:v>2.7282952599896299E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.6829089016152104E-2</c:v>
+                  <c:v>3.3098872473015711E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.078452429115802E-2</c:v>
+                  <c:v>2.264641036415347E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5270156520667298E-2</c:v>
+                  <c:v>3.464517246632863E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.1749125154544806E-3</c:v>
+                  <c:v>6.4319563453753229E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.8648032336920744E-3</c:v>
+                  <c:v>-5.7897076420784148E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9004968532781696E-2</c:v>
+                  <c:v>3.1233644598920755E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.8186020255766132E-2</c:v>
+                  <c:v>4.262203842535367E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.9365248134541182E-2</c:v>
+                  <c:v>2.0326706403385526E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6528776488079416E-2</c:v>
+                  <c:v>1.8958070302859124E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.0932460328040549E-2</c:v>
+                  <c:v>-9.3890118161687984E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.7881170973906526E-3</c:v>
+                  <c:v>1.2038582336278093E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.5270680847214965E-2</c:v>
+                  <c:v>2.8735283347794859E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.5193511111599386E-2</c:v>
+                  <c:v>4.5227149607959302E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.8500040441805888E-2</c:v>
+                  <c:v>3.5407390572399382E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.8777443881865457E-2</c:v>
+                  <c:v>4.5856190367359724E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.8710937757930007E-2</c:v>
+                  <c:v>2.0486764499090232E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.7304863867462371E-2</c:v>
+                  <c:v>2.771864467030969E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.5014419248043348E-2</c:v>
+                  <c:v>3.7523389181669531E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.129748699095933E-2</c:v>
+                  <c:v>4.2157158376123216E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.863570509926771E-2</c:v>
+                  <c:v>3.1234848505040373E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.7185181922825817E-2</c:v>
+                  <c:v>1.758419037911459E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0681191763179507E-2</c:v>
+                  <c:v>1.9328104697545694E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.1116373998788707E-2</c:v>
+                  <c:v>2.9997989546254124E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.2016784466671462E-2</c:v>
+                  <c:v>4.545938965228892E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.4521918448935157E-2</c:v>
+                  <c:v>2.8288150904712858E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.5682001546055234E-2</c:v>
+                  <c:v>4.1632701324358777E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.0738925377582809E-2</c:v>
+                  <c:v>4.32743248385246E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.6109541393231199E-2</c:v>
+                  <c:v>1.6511629146065628E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.6771254033092055E-2</c:v>
+                  <c:v>4.9029512675090856E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.5193601172030515E-2</c:v>
+                  <c:v>4.7738567258487914E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.2687852671770171E-2</c:v>
+                  <c:v>3.3879651901607161E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.6893750707682037E-2</c:v>
+                  <c:v>1.7952359387061901E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.0361834364143577E-2</c:v>
+                  <c:v>3.0691100572689211E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.8798629198832551E-3</c:v>
+                  <c:v>4.0103085279759223E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.9036269467775171E-2</c:v>
+                  <c:v>5.0528846219254159E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.0757245398690809E-2</c:v>
+                  <c:v>3.4146626828718246E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.8465670325794898E-2</c:v>
+                  <c:v>3.792560014503582E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.367166115349815E-2</c:v>
+                  <c:v>3.5883313947291905E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.5348489722298619E-2</c:v>
+                  <c:v>2.5346379282724707E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.4044927313081707E-2</c:v>
+                  <c:v>1.4061980532361965E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.6510057460187465E-2</c:v>
+                  <c:v>4.7410108319083204E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.7729005920348191E-2</c:v>
+                  <c:v>4.8317967428517149E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.4120318744263448E-2</c:v>
+                  <c:v>2.5097102284128023E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.7885793119207197E-2</c:v>
+                  <c:v>1.8635747969245203E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.6593912791769569E-2</c:v>
+                  <c:v>1.2845821358549106E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.1106913336732737E-3</c:v>
+                  <c:v>9.250870984358504E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.3651214880713806E-2</c:v>
+                  <c:v>9.4656202612775457E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.2718298801522331E-2</c:v>
+                  <c:v>5.4128581591542525E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.8414353976359051E-2</c:v>
+                  <c:v>6.5229760115887034E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.6238402787101618E-2</c:v>
+                  <c:v>4.3793542067639746E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.4687168775958144E-2</c:v>
+                  <c:v>3.3066972265790577E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.7584882723825703E-2</c:v>
+                  <c:v>2.6655719297743564E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.7070655354356481E-2</c:v>
+                  <c:v>2.6374662732594437E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.307073228333691E-2</c:v>
+                  <c:v>1.9629619145952577E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.2141461756361756E-2</c:v>
+                  <c:v>2.109024364820317E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.393695436605064E-2</c:v>
+                  <c:v>3.5121741655690313E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.5479415238335614E-2</c:v>
+                  <c:v>6.6016976795857135E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.355143209331792E-2</c:v>
+                  <c:v>2.2071449326065563E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,48 +2518,48 @@
   <dimension ref="A1:AM173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W57" sqref="W57"/>
+      <selection pane="bottomRight" activeCell="J93" sqref="J93:O98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="5" width="4.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="6.75" style="46" customWidth="1"/>
-    <col min="7" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="28"/>
-    <col min="9" max="9" width="11.125" style="26"/>
-    <col min="10" max="10" width="14.875" style="42" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="42" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="42" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="42" customWidth="1"/>
-    <col min="14" max="16" width="11.875" style="42" customWidth="1"/>
-    <col min="17" max="22" width="11.875" style="66" customWidth="1"/>
-    <col min="23" max="23" width="11.875" style="130" customWidth="1"/>
-    <col min="24" max="24" width="10.875" style="28"/>
-    <col min="25" max="25" width="10.375" style="28" customWidth="1"/>
-    <col min="26" max="27" width="10.875" style="28"/>
-    <col min="28" max="28" width="10.875" style="29"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="5" width="4.3984375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" style="28"/>
+    <col min="9" max="9" width="11.09765625" style="26"/>
+    <col min="10" max="10" width="14.8984375" style="42" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" style="42" customWidth="1"/>
+    <col min="13" max="13" width="10.3984375" style="42" customWidth="1"/>
+    <col min="14" max="16" width="11.8984375" style="42" customWidth="1"/>
+    <col min="17" max="22" width="11.8984375" style="66" customWidth="1"/>
+    <col min="23" max="23" width="11.8984375" style="130" customWidth="1"/>
+    <col min="24" max="24" width="10.8984375" style="28"/>
+    <col min="25" max="25" width="10.3984375" style="28" customWidth="1"/>
+    <col min="26" max="27" width="10.8984375" style="28"/>
+    <col min="28" max="28" width="10.8984375" style="29"/>
     <col min="29" max="29" width="15" style="27" customWidth="1"/>
-    <col min="30" max="30" width="10.875" style="36"/>
-    <col min="31" max="31" width="10.875" style="29"/>
-    <col min="32" max="32" width="10.875" style="42"/>
-    <col min="33" max="33" width="14.875" style="42" customWidth="1"/>
-    <col min="34" max="34" width="13.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.625" style="13" customWidth="1"/>
-    <col min="36" max="36" width="14.625" style="50" customWidth="1"/>
-    <col min="37" max="37" width="15.875" style="13" customWidth="1"/>
-    <col min="38" max="38" width="17.875" style="13" customWidth="1"/>
-    <col min="39" max="39" width="17.875" style="50" customWidth="1"/>
+    <col min="30" max="30" width="10.8984375" style="36"/>
+    <col min="31" max="31" width="10.8984375" style="29"/>
+    <col min="32" max="32" width="10.8984375" style="42"/>
+    <col min="33" max="33" width="14.8984375" style="42" customWidth="1"/>
+    <col min="34" max="34" width="13.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.59765625" style="13" customWidth="1"/>
+    <col min="36" max="36" width="14.59765625" style="50" customWidth="1"/>
+    <col min="37" max="37" width="15.8984375" style="13" customWidth="1"/>
+    <col min="38" max="38" width="17.8984375" style="13" customWidth="1"/>
+    <col min="39" max="39" width="17.8984375" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="E1" s="54"/>
       <c r="F1" s="55" t="s">
         <v>20</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="AM1" s="62"/>
     </row>
-    <row r="2" spans="1:39" s="12" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,20 +2808,20 @@
         <v>1.0596169858451293E-2</v>
       </c>
       <c r="L3" s="41">
-        <v>2.5407397468011697E-3</v>
+        <v>8.8893784720133536E-3</v>
       </c>
       <c r="M3" s="41">
-        <v>1.346487018722222E-4</v>
+        <v>4.7110030581229195E-4</v>
       </c>
       <c r="N3" s="41">
-        <v>3.0718259214034731E-4</v>
+        <v>1.0747508968549841E-3</v>
       </c>
       <c r="O3" s="41">
-        <v>8.705522116189324E-3</v>
+        <v>1.2518903665821144E-3</v>
       </c>
       <c r="P3" s="41">
         <f>SUM(J3:O3)</f>
-        <v>6.7147254547668081E-2</v>
+        <v>6.714628143192776E-2</v>
       </c>
       <c r="Q3" s="65">
         <v>-2.4781226319229743E-2</v>
@@ -2841,7 +2841,7 @@
       <c r="V3" s="65"/>
       <c r="W3" s="126">
         <f>SUMPRODUCT(J3:O3,Q3:V3)</f>
-        <v>2.0500724636041733E-3</v>
+        <v>4.6231450266989924E-3</v>
       </c>
       <c r="X3" s="21">
         <v>0.300866118286229</v>
@@ -2896,7 +2896,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -2932,20 +2932,20 @@
         <v>1.1145971124691687E-2</v>
       </c>
       <c r="L4" s="41">
-        <v>1.0281329100423491E-2</v>
+        <v>3.5230828243075364E-2</v>
       </c>
       <c r="M4" s="41">
-        <v>1.0163568807302237E-3</v>
+        <v>3.4827301362427396E-3</v>
       </c>
       <c r="N4" s="41">
-        <v>1.4186034103398596E-3</v>
+        <v>4.8611004089603492E-3</v>
       </c>
       <c r="O4" s="41">
-        <v>3.6465673311582757E-2</v>
+        <v>5.6032091714207132E-3</v>
       </c>
       <c r="P4" s="41">
         <f t="shared" ref="P4:P7" si="4">SUM(J4:O4)</f>
-        <v>0.10487420815890716</v>
+        <v>0.10487011341553</v>
       </c>
       <c r="Q4" s="65">
         <v>0.2124986879625253</v>
@@ -2965,7 +2965,7 @@
       <c r="V4" s="65"/>
       <c r="W4" s="126">
         <f>SUMPRODUCT(J4:O4,Q4:V4)</f>
-        <v>2.5350463763200239E-2</v>
+        <v>5.7708813971713034E-2</v>
       </c>
       <c r="X4" s="24">
         <v>0.22044664517062099</v>
@@ -3020,7 +3020,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -3056,20 +3056,20 @@
         <v>1.119595305798627E-2</v>
       </c>
       <c r="L5" s="41">
-        <v>4.348404861929259E-3</v>
+        <v>1.2784591261345476E-2</v>
       </c>
       <c r="M5" s="41">
-        <v>3.365982707854968E-4</v>
+        <v>9.8962066502681321E-4</v>
       </c>
       <c r="N5" s="41">
-        <v>7.1542395440482077E-4</v>
+        <v>2.1033926522617094E-3</v>
       </c>
       <c r="O5" s="41">
-        <v>1.758745955880494E-2</v>
+        <v>7.1083681644809361E-3</v>
       </c>
       <c r="P5" s="41">
         <f t="shared" si="4"/>
-        <v>7.6159426086327947E-2</v>
+        <v>7.6157512183518364E-2</v>
       </c>
       <c r="Q5" s="65">
         <v>0.43767547985739436</v>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="W5" s="126">
         <f>SUMPRODUCT(J5:O5,Q5:V5)</f>
-        <v>2.7907679558850894E-2</v>
+        <v>3.3228012428054621E-2</v>
       </c>
       <c r="X5" s="24">
         <v>0.22641824673906799</v>
@@ -3146,7 +3146,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -3182,20 +3182,20 @@
         <v>1.1345898857870016E-2</v>
       </c>
       <c r="L6" s="41">
-        <v>5.6016626763824842E-3</v>
+        <v>1.998759533534606E-2</v>
       </c>
       <c r="M6" s="41">
-        <v>1.2453280043730607E-4</v>
+        <v>4.443522155685622E-4</v>
       </c>
       <c r="N6" s="41">
-        <v>7.831070594382099E-4</v>
+        <v>2.7942466215070188E-3</v>
       </c>
       <c r="O6" s="41">
-        <v>2.537128717715038E-2</v>
+        <v>8.6517412582697868E-3</v>
       </c>
       <c r="P6" s="41">
         <f t="shared" si="4"/>
-        <v>0.11786089700450229</v>
+        <v>0.11785824272178531</v>
       </c>
       <c r="Q6" s="65">
         <v>0.2407222686183452</v>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="W6" s="126">
         <f t="shared" ref="W6:W7" si="6">SUMPRODUCT(J6:O6,Q6:V6)</f>
-        <v>2.8186525718633768E-2</v>
+        <v>3.5312199676015739E-2</v>
       </c>
       <c r="X6" s="24">
         <v>0.210715027996422</v>
@@ -3272,7 +3272,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -3308,20 +3308,20 @@
         <v>1.2062306568425683E-2</v>
       </c>
       <c r="L7" s="41">
-        <v>2.084412261718046E-3</v>
+        <v>9.5252598986363783E-3</v>
       </c>
       <c r="M7" s="41">
-        <v>7.7739900071229556E-6</v>
+        <v>3.5525254109863186E-5</v>
       </c>
       <c r="N7" s="41">
-        <v>5.963364597202799E-4</v>
+        <v>2.7251133905662694E-3</v>
       </c>
       <c r="O7" s="41">
-        <v>2.0303189812621896E-2</v>
+        <v>1.0703899759414054E-2</v>
       </c>
       <c r="P7" s="41">
         <f t="shared" si="4"/>
-        <v>0.11270251955594329</v>
+        <v>0.11270060533460252</v>
       </c>
       <c r="Q7" s="65">
         <v>0.21882088623485185</v>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="W7" s="126">
         <f t="shared" si="6"/>
-        <v>2.2426182442541676E-2</v>
+        <v>2.2201589907796686E-2</v>
       </c>
       <c r="X7" s="24">
         <v>0.166697207059711</v>
@@ -3398,7 +3398,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="70" t="s">
         <v>44</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -3490,26 +3490,26 @@
         <v>0.9713388270249419</v>
       </c>
       <c r="J9" s="122">
-        <v>4.8457731764410164E-2</v>
+        <v>4.8453697318338693E-2</v>
       </c>
       <c r="K9" s="41">
-        <v>1.0996025324807942E-2</v>
+        <v>1.0995109828569095E-2</v>
       </c>
       <c r="L9" s="41">
-        <v>2.6670042380005515E-2</v>
+        <v>5.499752424723562E-2</v>
       </c>
       <c r="M9" s="41">
-        <v>5.9594371898227165E-4</v>
+        <v>1.2289230241076382E-3</v>
       </c>
       <c r="N9" s="41">
-        <v>2.3666374397262597E-3</v>
+        <v>4.8803521989654085E-3</v>
       </c>
       <c r="O9" s="41">
-        <v>4.7169223012707366E-2</v>
+        <v>1.5688652788668205E-2</v>
       </c>
       <c r="P9" s="41">
         <f t="shared" ref="P9:P20" si="8">SUM(J9:O9)</f>
-        <v>0.13625560364063952</v>
+        <v>0.13624425940588464</v>
       </c>
       <c r="Q9" s="65">
         <v>0.23620444307771254</v>
@@ -3528,8 +3528,8 @@
       </c>
       <c r="V9" s="65"/>
       <c r="W9" s="126">
-        <f t="shared" ref="W9:W20" si="9">SUMPRODUCT(J9:O9,Q9:V9)</f>
-        <v>4.0570362970060621E-2</v>
+        <f t="shared" ref="W9:W19" si="9">SUMPRODUCT(J9:O9,Q9:V9)</f>
+        <v>6.8496804000152844E-2</v>
       </c>
       <c r="X9" s="24">
         <v>0.53003161072593497</v>
@@ -3584,7 +3584,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -3614,26 +3614,26 @@
         <v>0.19013256555119395</v>
       </c>
       <c r="J10" s="122">
-        <v>4.74336794809357E-2</v>
+        <v>4.7429730294399945E-2</v>
       </c>
       <c r="K10" s="41">
-        <v>1.119595305798627E-2</v>
+        <v>1.1195020916361261E-2</v>
       </c>
       <c r="L10" s="41">
-        <v>1.0347419235830248E-2</v>
+        <v>2.216702823409689E-2</v>
       </c>
       <c r="M10" s="41">
-        <v>1.0923340412010586E-3</v>
+        <v>2.3400810366823962E-3</v>
       </c>
       <c r="N10" s="41">
-        <v>1.4229973300487575E-3</v>
+        <v>3.048453075430487E-3</v>
       </c>
       <c r="O10" s="41">
-        <v>2.2894629651856343E-2</v>
+        <v>8.1988408600033834E-3</v>
       </c>
       <c r="P10" s="41">
         <f t="shared" si="8"/>
-        <v>9.4387012797858383E-2</v>
+        <v>9.4379154416974365E-2</v>
       </c>
       <c r="Q10" s="65">
         <v>0.59497479635851813</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="W10" s="126">
         <f t="shared" si="9"/>
-        <v>3.842346464482823E-2</v>
+        <v>4.4438298258269254E-2</v>
       </c>
       <c r="X10" s="24">
         <v>0.27091186572523601</v>
@@ -3710,7 +3710,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -3740,26 +3740,26 @@
         <v>0.18789259359227775</v>
       </c>
       <c r="J11" s="122">
-        <v>6.1020847407035013E-2</v>
+        <v>6.1015766993463547E-2</v>
       </c>
       <c r="K11" s="41">
-        <v>1.151250530218529E-2</v>
+        <v>1.1511546805365527E-2</v>
       </c>
       <c r="L11" s="41">
-        <v>4.5123555434795756E-3</v>
+        <v>1.378666534012242E-2</v>
       </c>
       <c r="M11" s="41">
-        <v>4.3619652490753575E-4</v>
+        <v>1.3327175692337571E-3</v>
       </c>
       <c r="N11" s="41">
-        <v>1.0069838664767473E-3</v>
+        <v>3.0766524127467127E-3</v>
       </c>
       <c r="O11" s="41">
-        <v>1.881904898608287E-2</v>
+        <v>6.5764869408702293E-3</v>
       </c>
       <c r="P11" s="41">
         <f t="shared" si="8"/>
-        <v>9.7307937630167027E-2</v>
+        <v>9.7299836061802189E-2</v>
       </c>
       <c r="Q11" s="65">
         <v>0.28281035806401439</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="W11" s="126">
         <f t="shared" si="9"/>
-        <v>4.519712516211357E-2</v>
+        <v>4.738920772557241E-2</v>
       </c>
       <c r="X11" s="24">
         <v>0.26508601426577999</v>
@@ -3836,7 +3836,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -3866,26 +3866,26 @@
         <v>0.27159229494968001</v>
       </c>
       <c r="J12" s="122">
-        <v>6.8379243712001006E-2</v>
+        <v>6.8373550660322371E-2</v>
       </c>
       <c r="K12" s="41">
-        <v>9.2299970150660632E-3</v>
+        <v>9.2292285530716361E-3</v>
       </c>
       <c r="L12" s="41">
-        <v>4.3036676598848106E-3</v>
+        <v>1.5605507484647545E-2</v>
       </c>
       <c r="M12" s="41">
-        <v>2.4889656343925388E-4</v>
+        <v>9.0252256693963435E-4</v>
       </c>
       <c r="N12" s="41">
-        <v>1.2352838796354489E-3</v>
+        <v>4.4792566138416494E-3</v>
       </c>
       <c r="O12" s="41">
-        <v>2.7915325934810813E-2</v>
+        <v>1.27130813466952E-2</v>
       </c>
       <c r="P12" s="41">
         <f t="shared" si="8"/>
-        <v>0.1113124147648374</v>
+        <v>0.11130314722551804</v>
       </c>
       <c r="Q12" s="65">
         <v>0.40305544543587063</v>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="W12" s="126">
         <f t="shared" si="9"/>
-        <v>4.2732913482100149E-2</v>
+        <v>4.8705446825733273E-2</v>
       </c>
       <c r="X12" s="24">
         <v>0.224420868135153</v>
@@ -3962,7 +3962,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -3992,26 +3992,26 @@
         <v>0.26049321247619472</v>
       </c>
       <c r="J13" s="122">
-        <v>8.0905409014500482E-2</v>
+        <v>8.0898673071696861E-2</v>
       </c>
       <c r="K13" s="41">
-        <v>1.0762776302766563E-2</v>
+        <v>1.0761880226144903E-2</v>
       </c>
       <c r="L13" s="41">
-        <v>2.8548469417259002E-3</v>
+        <v>1.2155926895347492E-2</v>
       </c>
       <c r="M13" s="41">
-        <v>1.4067060795872871E-4</v>
+        <v>5.9897488782240029E-4</v>
       </c>
       <c r="N13" s="41">
-        <v>6.0208231857225136E-4</v>
+        <v>2.563664111926428E-3</v>
       </c>
       <c r="O13" s="41">
-        <v>2.9368849968517342E-2</v>
+        <v>1.7645139253489012E-2</v>
       </c>
       <c r="P13" s="41">
         <f t="shared" si="8"/>
-        <v>0.12463463515404127</v>
+        <v>0.12462425844642709</v>
       </c>
       <c r="Q13" s="65">
         <v>0.27285589037106844</v>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="W13" s="126">
         <f t="shared" si="9"/>
-        <v>4.5124139281464568E-2</v>
+        <v>3.9585343337519507E-2</v>
       </c>
       <c r="X13" s="24">
         <v>0.17588311011235899</v>
@@ -4088,7 +4088,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -4118,26 +4118,26 @@
         <v>0.55211437224544302</v>
       </c>
       <c r="J14" s="122">
-        <v>5.108120591331123E-2</v>
+        <v>5.1076953044614758E-2</v>
       </c>
       <c r="K14" s="41">
-        <v>2.8656308422226767E-3</v>
+        <v>2.8653922583543709E-3</v>
       </c>
       <c r="L14" s="41">
-        <v>2.6384381653511039E-2</v>
+        <v>8.2312861241483667E-2</v>
       </c>
       <c r="M14" s="41">
         <v>0</v>
       </c>
       <c r="N14" s="41">
-        <v>3.7213965542543348E-3</v>
+        <v>1.1609853216101803E-2</v>
       </c>
       <c r="O14" s="41">
-        <v>0.2215528031092002</v>
+        <v>0.15771491451725064</v>
       </c>
       <c r="P14" s="41">
         <f t="shared" si="8"/>
-        <v>0.30560541807249947</v>
+        <v>0.30557997427780526</v>
       </c>
       <c r="Q14" s="65">
         <v>0.28134765624077429</v>
@@ -4211,7 +4211,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -4241,26 +4241,26 @@
         <v>0.34832159782455852</v>
       </c>
       <c r="J15" s="122">
-        <v>4.8531632444660903E-2</v>
+        <v>4.8527591845839435E-2</v>
       </c>
       <c r="K15" s="41">
-        <v>9.9464047256217301E-3</v>
+        <v>9.9455766176602262E-3</v>
       </c>
       <c r="L15" s="41">
-        <v>1.6903366124688231E-2</v>
+        <v>4.6350159129013524E-2</v>
       </c>
       <c r="M15" s="41">
-        <v>1.0427313361586581E-3</v>
+        <v>2.8592389825345572E-3</v>
       </c>
       <c r="N15" s="41">
-        <v>2.2361551014332473E-3</v>
+        <v>6.1316866725856381E-3</v>
       </c>
       <c r="O15" s="41">
-        <v>4.2669212360680005E-2</v>
+        <v>7.5051473135060547E-3</v>
       </c>
       <c r="P15" s="41">
         <f t="shared" si="8"/>
-        <v>0.12132950209324278</v>
+        <v>0.12131940056113943</v>
       </c>
       <c r="Q15" s="65">
         <v>0.6851488031298858</v>
@@ -4280,7 +4280,7 @@
       <c r="V15" s="65"/>
       <c r="W15" s="126">
         <f t="shared" si="9"/>
-        <v>5.6795191172241501E-2</v>
+        <v>8.4081993882288666E-2</v>
       </c>
       <c r="X15" s="24">
         <v>0.42754254268679598</v>
@@ -4335,7 +4335,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -4365,26 +4365,26 @@
         <v>0.25463551304947324</v>
       </c>
       <c r="J16" s="122">
-        <v>5.8365701538026483E-2</v>
+        <v>5.8360842183972868E-2</v>
       </c>
       <c r="K16" s="41">
-        <v>1.1245934991280852E-2</v>
+        <v>1.1244998688309303E-2</v>
       </c>
       <c r="L16" s="41">
-        <v>1.5504664902596832E-2</v>
+        <v>3.9106243247947682E-2</v>
       </c>
       <c r="M16" s="41">
-        <v>2.0694614043820932E-3</v>
+        <v>5.2196459311062583E-3</v>
       </c>
       <c r="N16" s="41">
-        <v>2.4896628168404431E-3</v>
+        <v>6.279488162586876E-3</v>
       </c>
       <c r="O16" s="41">
-        <v>4.9685432691834779E-2</v>
+        <v>1.9138037362047996E-2</v>
       </c>
       <c r="P16" s="41">
         <f t="shared" si="8"/>
-        <v>0.13936085834496148</v>
+        <v>0.13934925557597097</v>
       </c>
       <c r="Q16" s="65">
         <v>0.55245538632910618</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="W16" s="126">
         <f t="shared" si="9"/>
-        <v>5.7450523681287682E-2</v>
+        <v>7.9007771194532631E-2</v>
       </c>
       <c r="X16" s="24">
         <v>0.297632707803765</v>
@@ -4461,7 +4461,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -4491,26 +4491,26 @@
         <v>0.23247447768703397</v>
       </c>
       <c r="J17" s="122">
-        <v>6.6135830204389429E-2</v>
+        <v>6.6130323932621513E-2</v>
       </c>
       <c r="K17" s="41">
-        <v>1.3261872967495644E-2</v>
+        <v>1.3260768823546973E-2</v>
       </c>
       <c r="L17" s="41">
-        <v>1.1148157313430598E-2</v>
+        <v>3.2276999971017503E-2</v>
       </c>
       <c r="M17" s="41">
-        <v>5.8189451002489592E-4</v>
+        <v>1.6847456090865953E-3</v>
       </c>
       <c r="N17" s="41">
-        <v>1.2519325089561787E-3</v>
+        <v>3.6246910067023082E-3</v>
       </c>
       <c r="O17" s="41">
-        <v>2.9334255733682923E-2</v>
+        <v>4.7262803554795046E-3</v>
       </c>
       <c r="P17" s="41">
         <f t="shared" si="8"/>
-        <v>0.12171394323797967</v>
+        <v>0.1217038096984544</v>
       </c>
       <c r="Q17" s="65">
         <v>0.58418700169664861</v>
@@ -4530,7 +4530,7 @@
       <c r="V17" s="65"/>
       <c r="W17" s="126">
         <f t="shared" si="9"/>
-        <v>4.9731838368302805E-2</v>
+        <v>6.7078213890452071E-2</v>
       </c>
       <c r="X17" s="24">
         <v>0.29077635533778201</v>
@@ -4585,7 +4585,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -4615,26 +4615,26 @@
         <v>0.23852530989486037</v>
       </c>
       <c r="J18" s="122">
-        <v>7.888369754764113E-2</v>
+        <v>7.8877129926498202E-2</v>
       </c>
       <c r="K18" s="41">
-        <v>8.4302860823527587E-3</v>
+        <v>8.4295842019029756E-3</v>
       </c>
       <c r="L18" s="41">
-        <v>7.4378519474642127E-3</v>
+        <v>2.7888639789564264E-2</v>
       </c>
       <c r="M18" s="41">
-        <v>5.8371982681347274E-4</v>
+        <v>2.1886899743383341E-3</v>
       </c>
       <c r="N18" s="41">
-        <v>1.544501005325644E-3</v>
+        <v>5.7911924701367565E-3</v>
       </c>
       <c r="O18" s="41">
-        <v>4.551188524234525E-2</v>
+        <v>1.9204850161564882E-2</v>
       </c>
       <c r="P18" s="41">
         <f t="shared" si="8"/>
-        <v>0.14239194165194247</v>
+        <v>0.14238008652400541</v>
       </c>
       <c r="Q18" s="65">
         <v>7.6209381806866372E-2</v>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="W18" s="126">
         <f t="shared" si="9"/>
-        <v>3.6372957495712191E-2</v>
+        <v>5.6697772288874564E-2</v>
       </c>
       <c r="X18" s="24">
         <v>0.27009180420729201</v>
@@ -4711,7 +4711,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -4741,26 +4741,26 @@
         <v>0.25454961368194112</v>
       </c>
       <c r="J19" s="122">
-        <v>8.198224749815404E-2</v>
+        <v>8.1975421900993273E-2</v>
       </c>
       <c r="K19" s="41">
-        <v>9.8131195701695144E-3</v>
+        <v>9.812302559132121E-3</v>
       </c>
       <c r="L19" s="41">
-        <v>4.7792127990781324E-3</v>
+        <v>2.2414409237863774E-2</v>
       </c>
       <c r="M19" s="41">
-        <v>1.2662949066853983E-4</v>
+        <v>5.9388969371156498E-4</v>
       </c>
       <c r="N19" s="41">
-        <v>1.3309447542956491E-3</v>
+        <v>6.2421033860482486E-3</v>
       </c>
       <c r="O19" s="41">
-        <v>5.9323256608145136E-2</v>
+        <v>3.6304183001065228E-2</v>
       </c>
       <c r="P19" s="41">
         <f t="shared" si="8"/>
-        <v>0.15735541072051101</v>
+        <v>0.15734230977881422</v>
       </c>
       <c r="Q19" s="65">
         <v>0.1187800993789708</v>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="W19" s="126">
         <f t="shared" si="9"/>
-        <v>4.1497957329559326E-2</v>
+        <v>5.5994587503937245E-2</v>
       </c>
       <c r="X19" s="24">
         <v>0.16331297750621299</v>
@@ -4837,7 +4837,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -4867,26 +4867,26 @@
         <v>0.50885183361440456</v>
       </c>
       <c r="J20" s="122">
-        <v>3.3994312915337853E-2</v>
+        <v>3.3991482650337822E-2</v>
       </c>
       <c r="K20" s="41">
-        <v>2.0159379762147898E-3</v>
+        <v>2.0157701352376679E-3</v>
       </c>
       <c r="L20" s="41">
-        <v>2.3606135301328358E-2</v>
+        <v>5.356348206475222E-2</v>
       </c>
       <c r="M20" s="41">
-        <v>3.8414402492479817E-4</v>
+        <v>8.7164168665013534E-4</v>
       </c>
       <c r="N20" s="41">
-        <v>2.3630485198255168E-3</v>
+        <v>5.3618733178527021E-3</v>
       </c>
       <c r="O20" s="41">
-        <v>0.12782044147316388</v>
+        <v>9.4363936202254639E-2</v>
       </c>
       <c r="P20" s="41">
         <f t="shared" si="8"/>
-        <v>0.1901840202107952</v>
+        <v>0.19016818605708519</v>
       </c>
       <c r="Q20" s="65">
         <v>0.16975678500695066</v>
@@ -4957,7 +4957,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -5563,26 +5563,26 @@
         <v>0.24847388384712152</v>
       </c>
       <c r="J27" s="122">
-        <v>4.0233641776506998E-2</v>
+        <v>4.0230292043614106E-2</v>
       </c>
       <c r="K27" s="41">
-        <v>7.5805932163448709E-3</v>
+        <v>7.5799620787862709E-3</v>
       </c>
       <c r="L27" s="41">
-        <v>9.9029020776890079E-3</v>
+        <v>1.3331294253477798E-2</v>
       </c>
       <c r="M27" s="41">
-        <v>4.1972273565849802E-4</v>
+        <v>5.6503106362573458E-4</v>
       </c>
       <c r="N27" s="41">
-        <v>1.0256781853148192E-3</v>
+        <v>1.3807687474373105E-3</v>
       </c>
       <c r="O27" s="41">
-        <v>7.5646682679470336E-3</v>
+        <v>3.6343025645473601E-3</v>
       </c>
       <c r="P27" s="41">
         <f t="shared" ref="P27:P38" si="10">SUM(J27:O27)</f>
-        <v>6.6727206259461228E-2</v>
+        <v>6.6721650751488587E-2</v>
       </c>
       <c r="Q27" s="65">
         <v>0.35601344001310947</v>
@@ -5602,7 +5602,7 @@
       <c r="V27" s="65"/>
       <c r="W27" s="126">
         <f t="shared" ref="W27:W38" si="11">SUMPRODUCT(J27:O27,Q27:V27)</f>
-        <v>2.4961075824785888E-2</v>
+        <v>2.7282952599896299E-2</v>
       </c>
       <c r="X27" s="24">
         <v>0.27459285399766498</v>
@@ -5657,7 +5657,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -5687,26 +5687,26 @@
         <v>0.17999797317047095</v>
       </c>
       <c r="J28" s="122">
-        <v>4.4013133709330278E-2</v>
+        <v>4.4009469307223097E-2</v>
       </c>
       <c r="K28" s="41">
-        <v>8.063751904859159E-3</v>
+        <v>8.0630805409506717E-3</v>
       </c>
       <c r="L28" s="41">
-        <v>7.9843021858254388E-3</v>
+        <v>1.1850326329485565E-2</v>
       </c>
       <c r="M28" s="41">
-        <v>2.3944522828931196E-4</v>
+        <v>3.5538535832272826E-4</v>
       </c>
       <c r="N28" s="41">
-        <v>1.0922089044320578E-3</v>
+        <v>1.6210598792800713E-3</v>
       </c>
       <c r="O28" s="41">
-        <v>7.5057262388245052E-3</v>
+        <v>2.9935104672159821E-3</v>
       </c>
       <c r="P28" s="41">
         <f t="shared" si="10"/>
-        <v>6.8898568171560745E-2</v>
+        <v>6.889283188247812E-2</v>
       </c>
       <c r="Q28" s="65">
         <v>0.2670197308795742</v>
@@ -5724,7 +5724,7 @@
       <c r="V28" s="65"/>
       <c r="W28" s="126">
         <f t="shared" si="11"/>
-        <v>2.6829089016152104E-2</v>
+        <v>3.3098872473015711E-2</v>
       </c>
       <c r="X28" s="24">
         <v>0.310410193369905</v>
@@ -5779,7 +5779,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -5809,26 +5809,26 @@
         <v>0.16154644752344152</v>
       </c>
       <c r="J29" s="122">
-        <v>5.7890625736414632E-2</v>
+        <v>5.7885805935753876E-2</v>
       </c>
       <c r="K29" s="41">
-        <v>8.646874459962612E-3</v>
+        <v>8.646154547011153E-3</v>
       </c>
       <c r="L29" s="41">
-        <v>4.7599366175087492E-3</v>
+        <v>7.5787543522792249E-3</v>
       </c>
       <c r="M29" s="41">
-        <v>2.5122830199194836E-5</v>
+        <v>4.0000481941999278E-5</v>
       </c>
       <c r="N29" s="41">
-        <v>5.1994371436127687E-4</v>
+        <v>8.278525545195477E-4</v>
       </c>
       <c r="O29" s="41">
-        <v>5.7425407375508598E-3</v>
+        <v>2.6000167253577336E-3</v>
       </c>
       <c r="P29" s="41">
         <f t="shared" si="10"/>
-        <v>7.7585044095997313E-2</v>
+        <v>7.7578584596863523E-2</v>
       </c>
       <c r="Q29" s="65">
         <v>0.26089863512189698</v>
@@ -5848,7 +5848,7 @@
       <c r="V29" s="65"/>
       <c r="W29" s="126">
         <f t="shared" si="11"/>
-        <v>2.078452429115802E-2</v>
+        <v>2.264641036415347E-2</v>
       </c>
       <c r="X29" s="24">
         <v>0.27122519930157901</v>
@@ -5903,7 +5903,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -5933,26 +5933,26 @@
         <v>0.18640149902686493</v>
       </c>
       <c r="J30" s="122">
-        <v>7.0976324760812531E-2</v>
+        <v>7.0970415483919622E-2</v>
       </c>
       <c r="K30" s="41">
-        <v>8.1637157714483204E-3</v>
+        <v>8.1630360848467514E-3</v>
       </c>
       <c r="L30" s="41">
-        <v>5.017374802327064E-3</v>
+        <v>8.3145744214448841E-3</v>
       </c>
       <c r="M30" s="41">
-        <v>1.1659839584442649E-5</v>
+        <v>1.9322176992237742E-5</v>
       </c>
       <c r="N30" s="41">
-        <v>7.448610512164808E-4</v>
+        <v>1.2343512071497399E-3</v>
       </c>
       <c r="O30" s="41">
-        <v>7.861553301532407E-3</v>
+        <v>4.0660659423001882E-3</v>
       </c>
       <c r="P30" s="41">
         <f t="shared" si="10"/>
-        <v>9.2775489526921245E-2</v>
+        <v>9.2767765316653428E-2</v>
       </c>
       <c r="Q30" s="65">
         <v>0.4690018387870365</v>
@@ -5972,7 +5972,7 @@
       <c r="V30" s="65"/>
       <c r="W30" s="126">
         <f t="shared" si="11"/>
-        <v>3.5270156520667298E-2</v>
+        <v>3.464517246632863E-2</v>
       </c>
       <c r="X30" s="24">
         <v>0.217777350275415</v>
@@ -6027,7 +6027,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -6057,26 +6057,26 @@
         <v>0.32489816308607844</v>
       </c>
       <c r="J31" s="122">
-        <v>9.3299608816552249E-2</v>
+        <v>9.3291840969677173E-2</v>
       </c>
       <c r="K31" s="41">
-        <v>6.7309003503369848E-3</v>
+        <v>6.7303399556695688E-3</v>
       </c>
       <c r="L31" s="41">
-        <v>3.6532052379204937E-3</v>
+        <v>6.8816645544651969E-3</v>
       </c>
       <c r="M31" s="41">
-        <v>9.4940839594244696E-6</v>
+        <v>1.7884322616891501E-5</v>
       </c>
       <c r="N31" s="41">
-        <v>8.9801557911636863E-4</v>
+        <v>1.6916218984949203E-3</v>
       </c>
       <c r="O31" s="41">
-        <v>1.2951481555509649E-2</v>
+        <v>8.9195676677363105E-3</v>
       </c>
       <c r="P31" s="41">
         <f t="shared" si="10"/>
-        <v>0.11754270562339517</v>
+        <v>0.11753291936866006</v>
       </c>
       <c r="Q31" s="65">
         <v>5.5039348199148387E-2</v>
@@ -6096,7 +6096,7 @@
       <c r="V31" s="65"/>
       <c r="W31" s="126">
         <f t="shared" si="11"/>
-        <v>6.1749125154544806E-3</v>
+        <v>6.4319563453753229E-3</v>
       </c>
       <c r="X31" s="24">
         <v>0.19675487107886899</v>
@@ -6151,7 +6151,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -6181,26 +6181,26 @@
         <v>0.47896042020746266</v>
       </c>
       <c r="J32" s="122">
-        <v>3.5435376180227171E-2</v>
+        <v>3.5432425936602147E-2</v>
       </c>
       <c r="K32" s="41">
-        <v>1.1662451102069028E-3</v>
+        <v>1.1661480121209645E-3</v>
       </c>
       <c r="L32" s="41">
-        <v>1.3434409555055461E-2</v>
+        <v>2.7605482531490599E-2</v>
       </c>
       <c r="M32" s="41">
         <v>0</v>
       </c>
       <c r="N32" s="41">
-        <v>7.4302995113139118E-4</v>
+        <v>1.5268032623445842E-3</v>
       </c>
       <c r="O32" s="41">
-        <v>3.9242277025475399E-2</v>
+        <v>2.428298317171837E-2</v>
       </c>
       <c r="P32" s="41">
         <f t="shared" si="10"/>
-        <v>9.0021337822096315E-2</v>
+        <v>9.0013842914276665E-2</v>
       </c>
       <c r="Q32" s="65">
         <v>0.27635561246366702</v>
@@ -6220,7 +6220,7 @@
       <c r="V32" s="65"/>
       <c r="W32" s="126">
         <f t="shared" si="11"/>
-        <v>4.8648032336920744E-3</v>
+        <v>-5.7897076420784148E-4</v>
       </c>
       <c r="X32" s="24">
         <v>0.17446457674598301</v>
@@ -6275,7 +6275,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -6305,26 +6305,26 @@
         <v>0.27254812465936906</v>
       </c>
       <c r="J33" s="122">
-        <v>2.4450567922957286E-2</v>
+        <v>2.4448532241671553E-2</v>
       </c>
       <c r="K33" s="41">
-        <v>9.5632099036966067E-3</v>
+        <v>9.5624136993919129E-3</v>
       </c>
       <c r="L33" s="41">
-        <v>1.4983681299154381E-2</v>
+        <v>2.0001640281249452E-2</v>
       </c>
       <c r="M33" s="41">
-        <v>2.5500674173394716E-4</v>
+        <v>3.404072080566575E-4</v>
       </c>
       <c r="N33" s="41">
-        <v>1.2758834803034676E-3</v>
+        <v>1.7031703961334797E-3</v>
       </c>
       <c r="O33" s="41">
-        <v>1.0854489665585743E-2</v>
+        <v>5.321564635016509E-3</v>
       </c>
       <c r="P33" s="41">
         <f t="shared" si="10"/>
-        <v>6.1382839013431431E-2</v>
+        <v>6.1377728461519565E-2</v>
       </c>
       <c r="Q33" s="65">
         <v>0.64250594820128692</v>
@@ -6344,7 +6344,7 @@
       <c r="V33" s="65"/>
       <c r="W33" s="126">
         <f t="shared" si="11"/>
-        <v>2.9004968532781696E-2</v>
+        <v>3.1233644598920755E-2</v>
       </c>
       <c r="X33" s="24">
         <v>0.40939979524314801</v>
@@ -6399,7 +6399,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -6429,26 +6429,26 @@
         <v>0.51699421617170116</v>
       </c>
       <c r="J34" s="122">
-        <v>2.679955383092706E-2</v>
+        <v>2.6797322580087754E-2</v>
       </c>
       <c r="K34" s="41">
-        <v>1.0596169858451293E-2</v>
+        <v>1.0595287652984767E-2</v>
       </c>
       <c r="L34" s="41">
-        <v>1.0637508965467415E-2</v>
+        <v>1.5063138531382561E-2</v>
       </c>
       <c r="M34" s="41">
-        <v>1.8913479814105881E-4</v>
+        <v>2.6782244553235599E-4</v>
       </c>
       <c r="N34" s="41">
-        <v>1.1941296174461063E-3</v>
+        <v>1.6909353411978243E-3</v>
       </c>
       <c r="O34" s="41">
-        <v>9.6203799391608655E-3</v>
+        <v>4.6174552242890183E-3</v>
       </c>
       <c r="P34" s="41">
         <f t="shared" si="10"/>
-        <v>5.9036877009593799E-2</v>
+        <v>5.9031961775474276E-2</v>
       </c>
       <c r="Q34" s="65">
         <v>0.88188326351724156</v>
@@ -6468,7 +6468,7 @@
       <c r="V34" s="65"/>
       <c r="W34" s="126">
         <f t="shared" si="11"/>
-        <v>3.8186020255766132E-2</v>
+        <v>4.262203842535367E-2</v>
       </c>
       <c r="X34" s="24">
         <v>0.34306554429402603</v>
@@ -6523,7 +6523,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -6553,26 +6553,26 @@
         <v>0.19943277924375397</v>
       </c>
       <c r="J35" s="122">
-        <v>6.5027320000628414E-2</v>
+        <v>6.5021906020110515E-2</v>
       </c>
       <c r="K35" s="41">
-        <v>8.5302499489419217E-3</v>
+        <v>8.5295397457990571E-3</v>
       </c>
       <c r="L35" s="41">
-        <v>5.386103867520948E-3</v>
+        <v>8.1193677689274813E-3</v>
       </c>
       <c r="M35" s="41">
-        <v>2.2376822800272488E-4</v>
+        <v>3.3732296718436318E-4</v>
       </c>
       <c r="N35" s="41">
-        <v>9.1063035863648233E-4</v>
+        <v>1.3727441885971342E-3</v>
       </c>
       <c r="O35" s="41">
-        <v>6.3465521346812706E-3</v>
+        <v>3.0365483915832134E-3</v>
       </c>
       <c r="P35" s="41">
         <f t="shared" si="10"/>
-        <v>8.6424624538411751E-2</v>
+        <v>8.6417429082201763E-2</v>
       </c>
       <c r="Q35" s="65">
         <v>0.25722374503510137</v>
@@ -6592,7 +6592,7 @@
       <c r="V35" s="65"/>
       <c r="W35" s="126">
         <f t="shared" si="11"/>
-        <v>1.9365248134541182E-2</v>
+        <v>2.0326706403385526E-2</v>
       </c>
       <c r="X35" s="24">
         <v>0.26564862139793899</v>
@@ -6647,7 +6647,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -6677,26 +6677,26 @@
         <v>0.14803585725780496</v>
       </c>
       <c r="J36" s="122">
-        <v>6.2213815531082593E-2</v>
+        <v>6.2208635794546829E-2</v>
       </c>
       <c r="K36" s="41">
-        <v>6.8641855057892005E-3</v>
+        <v>6.8636140141976774E-3</v>
       </c>
       <c r="L36" s="41">
-        <v>3.6980692406060655E-3</v>
+        <v>6.2392899141325234E-3</v>
       </c>
       <c r="M36" s="41">
-        <v>9.2722639712491734E-6</v>
+        <v>1.5643931823058055E-5</v>
       </c>
       <c r="N36" s="41">
-        <v>5.8473803392992323E-4</v>
+        <v>9.8655538340075392E-4</v>
       </c>
       <c r="O36" s="41">
-        <v>5.4528482781704534E-3</v>
+        <v>2.5026272537257603E-3</v>
       </c>
       <c r="P36" s="41">
         <f t="shared" si="10"/>
-        <v>7.8822928853549495E-2</v>
+        <v>7.8816366291826603E-2</v>
       </c>
       <c r="Q36" s="65">
         <v>0.18240812894967628</v>
@@ -6716,7 +6716,7 @@
       <c r="V36" s="65"/>
       <c r="W36" s="126">
         <f t="shared" si="11"/>
-        <v>1.6528776488079416E-2</v>
+        <v>1.8958070302859124E-2</v>
       </c>
       <c r="X36" s="24">
         <v>0.22614736554961001</v>
@@ -6771,7 +6771,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -6801,26 +6801,26 @@
         <v>0.17054008574637733</v>
       </c>
       <c r="J37" s="122">
-        <v>8.8126561199000822E-2</v>
+        <v>8.8119224044625757E-2</v>
       </c>
       <c r="K37" s="41">
-        <v>6.0478139286443706E-3</v>
+        <v>6.0473104057130033E-3</v>
       </c>
       <c r="L37" s="41">
-        <v>3.0855271007932858E-3</v>
+        <v>5.639170196744937E-3</v>
       </c>
       <c r="M37" s="41">
         <v>0</v>
       </c>
       <c r="N37" s="41">
-        <v>9.1212456671582222E-4</v>
+        <v>1.667016851357531E-3</v>
       </c>
       <c r="O37" s="41">
-        <v>1.0900728742786107E-2</v>
+        <v>7.5909529675203379E-3</v>
       </c>
       <c r="P37" s="41">
         <f t="shared" si="10"/>
-        <v>0.10907275553794041</v>
+        <v>0.10906367446596157</v>
       </c>
       <c r="Q37" s="65">
         <v>-0.13682512104586511</v>
@@ -6840,7 +6840,7 @@
       <c r="V37" s="65"/>
       <c r="W37" s="126">
         <f t="shared" si="11"/>
-        <v>-1.0932460328040549E-2</v>
+        <v>-9.3890118161687984E-3</v>
       </c>
       <c r="X37" s="24">
         <v>8.0757141314504802E-2</v>
@@ -6895,7 +6895,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -6925,26 +6925,26 @@
         <v>0.39469631375190034</v>
       </c>
       <c r="J38" s="122">
-        <v>4.8726941385323547E-2</v>
+        <v>4.8722884525662799E-2</v>
       </c>
       <c r="K38" s="41">
-        <v>9.9963866589163107E-4</v>
+        <v>9.9955543896082673E-4</v>
       </c>
       <c r="L38" s="41">
-        <v>2.8574970161749538E-3</v>
+        <v>9.3315011653691288E-3</v>
       </c>
       <c r="M38" s="41">
         <v>0</v>
       </c>
       <c r="N38" s="41">
-        <v>2.8454424089859113E-4</v>
+        <v>9.2921353916182307E-4</v>
       </c>
       <c r="O38" s="41">
-        <v>1.9665087140414428E-2</v>
+        <v>1.2544514839539531E-2</v>
       </c>
       <c r="P38" s="41">
         <f t="shared" si="10"/>
-        <v>7.2533708448703146E-2</v>
+        <v>7.2527669508694104E-2</v>
       </c>
       <c r="Q38" s="65">
         <v>9.6822835035114602E-2</v>
@@ -6964,7 +6964,7 @@
       <c r="V38" s="65"/>
       <c r="W38" s="126">
         <f t="shared" si="11"/>
-        <v>6.7881170973906526E-3</v>
+        <v>1.2038582336278093E-2</v>
       </c>
       <c r="X38" s="24">
         <v>0.125359565674562</v>
@@ -7019,7 +7019,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:39" s="117" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" s="117" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="107" t="s">
         <v>44</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>6.249690278304889E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>8.6039395460915963E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>6.9893509058829975E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>6.1532128051425272E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>44</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>5.3256946848220618E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>44</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>5.7092838135122774E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>45</v>
       </c>
@@ -7955,26 +7955,26 @@
         <v>0.24325596743352906</v>
       </c>
       <c r="J51" s="122">
-        <v>2.6588409030210682E-2</v>
+        <v>2.658619535865709E-2</v>
       </c>
       <c r="K51" s="41">
-        <v>1.4144887122366582E-2</v>
+        <v>1.41437094612957E-2</v>
       </c>
       <c r="L51" s="41">
-        <v>2.3546249175977439E-3</v>
+        <v>5.1976658063352752E-3</v>
       </c>
       <c r="M51" s="41">
-        <v>3.362217070673716E-4</v>
+        <v>7.4218532943865704E-4</v>
       </c>
       <c r="N51" s="41">
-        <v>1.510040828459657E-4</v>
+        <v>3.3333069405646167E-4</v>
       </c>
       <c r="O51" s="41">
-        <v>5.5786651060103854E-3</v>
+        <v>2.146632916684702E-3</v>
       </c>
       <c r="P51" s="41">
         <f t="shared" ref="P51:P98" si="13">SUM(J51:O51)</f>
-        <v>4.9153811966098727E-2</v>
+        <v>4.9149719566467888E-2</v>
       </c>
       <c r="Q51" s="67">
         <v>0.74367952691342643</v>
@@ -7992,7 +7992,7 @@
       <c r="V51" s="65"/>
       <c r="W51" s="126">
         <f t="shared" ref="W51:W98" si="14">SUMPRODUCT(J51:O51,Q51:V51)</f>
-        <v>2.5270680847214965E-2</v>
+        <v>2.8735283347794859E-2</v>
       </c>
       <c r="X51" s="24">
         <v>0.34357259783301197</v>
@@ -8047,7 +8047,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
@@ -8077,26 +8077,26 @@
         <v>0.11098648213352437</v>
       </c>
       <c r="J52" s="122">
-        <v>3.0024790661869829E-2</v>
+        <v>3.0022290887441235E-2</v>
       </c>
       <c r="K52" s="41">
-        <v>1.4494760655428653E-2</v>
+        <v>1.4493553864931988E-2</v>
       </c>
       <c r="L52" s="41">
-        <v>4.6429827320808893E-3</v>
+        <v>1.2501827461867232E-2</v>
       </c>
       <c r="M52" s="41">
-        <v>6.6298099896828404E-4</v>
+        <v>6.0200300895993809E-4</v>
       </c>
       <c r="N52" s="41">
-        <v>2.9775840045166203E-4</v>
+        <v>1.2967275958295302E-3</v>
       </c>
       <c r="O52" s="41">
-        <v>1.1088969245920141E-2</v>
+        <v>2.2907435271178347E-3</v>
       </c>
       <c r="P52" s="41">
         <f t="shared" si="13"/>
-        <v>6.1212242694719456E-2</v>
+        <v>6.120714634614776E-2</v>
       </c>
       <c r="Q52" s="67">
         <v>0.55806872506180383</v>
@@ -8114,7 +8114,7 @@
       <c r="V52" s="65"/>
       <c r="W52" s="126">
         <f t="shared" si="14"/>
-        <v>3.5193511111599386E-2</v>
+        <v>4.5227149607959302E-2</v>
       </c>
       <c r="X52" s="24">
         <v>0.38405687213928702</v>
@@ -8169,7 +8169,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>45</v>
       </c>
@@ -8199,26 +8199,26 @@
         <v>8.7170458280388677E-2</v>
       </c>
       <c r="J53" s="122">
-        <v>3.5540948580585367E-2</v>
+        <v>3.5537989547317482E-2</v>
       </c>
       <c r="K53" s="41">
-        <v>1.7477016008672023E-2</v>
+        <v>1.7475560924498458E-2</v>
       </c>
       <c r="L53" s="41">
-        <v>4.7284611488355409E-3</v>
+        <v>1.0702578921766013E-2</v>
       </c>
       <c r="M53" s="41">
-        <v>1.8828251074967894E-4</v>
+        <v>4.2616580055499653E-4</v>
       </c>
       <c r="N53" s="41">
-        <v>3.6811332290681602E-4</v>
+        <v>8.3320170485781913E-4</v>
       </c>
       <c r="O53" s="41">
-        <v>1.1045515923017293E-2</v>
+        <v>4.3670668602382931E-3</v>
       </c>
       <c r="P53" s="41">
         <f t="shared" si="13"/>
-        <v>6.9348337494766724E-2</v>
+        <v>6.9342563759233061E-2</v>
       </c>
       <c r="Q53" s="67">
         <v>0.5719501965035757</v>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="W53" s="126">
         <f t="shared" si="14"/>
-        <v>2.8500040441805888E-2</v>
+        <v>3.5407390572399382E-2</v>
       </c>
       <c r="X53" s="24">
         <v>0.29777127953855298</v>
@@ -8295,7 +8295,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
@@ -8325,26 +8325,26 @@
         <v>7.1279271144633657E-2</v>
       </c>
       <c r="J54" s="122">
-        <v>4.3648908928094525E-2</v>
+        <v>4.3645274850255197E-2</v>
       </c>
       <c r="K54" s="41">
-        <v>1.857661854115281E-2</v>
+        <v>1.8575071907355363E-2</v>
       </c>
       <c r="L54" s="41">
-        <v>4.7174663308357078E-3</v>
+        <v>1.3932517953642278E-2</v>
       </c>
       <c r="M54" s="41">
-        <v>1.0045976428695261E-5</v>
+        <v>2.9669686467029569E-5</v>
       </c>
       <c r="N54" s="41">
-        <v>5.5483585927541032E-4</v>
+        <v>1.6386466862837712E-3</v>
       </c>
       <c r="O54" s="41">
-        <v>1.6299101221957397E-2</v>
+        <v>5.9788182550615443E-3</v>
       </c>
       <c r="P54" s="41">
         <f t="shared" si="13"/>
-        <v>8.3806976857744547E-2</v>
+        <v>8.3799999339065179E-2</v>
       </c>
       <c r="Q54" s="67">
         <v>0.37441223006765451</v>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="W54" s="126">
         <f t="shared" si="14"/>
-        <v>3.8777443881865457E-2</v>
+        <v>4.5856190367359724E-2</v>
       </c>
       <c r="X54" s="24">
         <v>0.24873452814987601</v>
@@ -8421,7 +8421,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>45</v>
       </c>
@@ -8451,26 +8451,26 @@
         <v>9.4337383799824912E-2</v>
       </c>
       <c r="J55" s="122">
-        <v>5.1825491335836499E-2</v>
+        <v>5.1821176500157884E-2</v>
       </c>
       <c r="K55" s="41">
-        <v>2.0276004273168589E-2</v>
+        <v>2.0274316153588771E-2</v>
       </c>
       <c r="L55" s="41">
-        <v>7.3552875937193615E-4</v>
+        <v>5.5467827974396188E-3</v>
       </c>
       <c r="M55" s="41">
-        <v>1.1832963612827791E-5</v>
+        <v>8.9234959441160952E-5</v>
       </c>
       <c r="N55" s="41">
-        <v>8.5133386696968242E-5</v>
+        <v>6.4200943715884235E-4</v>
       </c>
       <c r="O55" s="41">
-        <v>1.2658722330201461E-2</v>
+        <v>7.2120670073588583E-3</v>
       </c>
       <c r="P55" s="41">
         <f t="shared" si="13"/>
-        <v>8.5592713048888283E-2</v>
+        <v>8.5585586855145113E-2</v>
       </c>
       <c r="Q55" s="67">
         <v>0.31867920320629195</v>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="W55" s="126">
         <f t="shared" si="14"/>
-        <v>1.8710937757930007E-2</v>
+        <v>2.0486764499090232E-2</v>
       </c>
       <c r="X55" s="24">
         <v>0.14890361510129099</v>
@@ -8547,7 +8547,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
@@ -8577,26 +8577,26 @@
         <v>0.25851561491156227</v>
       </c>
       <c r="J56" s="122">
-        <v>5.5108792986976268E-2</v>
+        <v>5.510420479340479E-2</v>
       </c>
       <c r="K56" s="41">
-        <v>4.1151791745872163E-3</v>
+        <v>4.1148365570554055E-3</v>
       </c>
       <c r="L56" s="41">
-        <v>2.9125931969178967E-3</v>
+        <v>1.2741224564989407E-2</v>
       </c>
       <c r="M56" s="41">
-        <v>7.2099471934800735E-6</v>
+        <v>3.1540125957533201E-5</v>
       </c>
       <c r="N56" s="41">
-        <v>1.488815573589336E-4</v>
+        <v>6.5128674952027522E-4</v>
       </c>
       <c r="O56" s="41">
-        <v>2.8227577239926822E-2</v>
+        <v>1.7869604867598692E-2</v>
       </c>
       <c r="P56" s="41">
         <f t="shared" si="13"/>
-        <v>9.0520234102960617E-2</v>
+        <v>9.0512697658526098E-2</v>
       </c>
       <c r="Q56" s="67">
         <v>0.24687393845137456</v>
@@ -8670,7 +8670,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
@@ -8700,26 +8700,26 @@
         <v>0.14679255342259276</v>
       </c>
       <c r="J57" s="122">
-        <v>2.2882817777638127E-2</v>
+        <v>2.2880912622548828E-2</v>
       </c>
       <c r="K57" s="41">
-        <v>1.0979364680376415E-2</v>
+        <v>1.097845057125308E-2</v>
       </c>
       <c r="L57" s="41">
-        <v>1.4890107254943218E-3</v>
+        <v>2.3858197511497578E-3</v>
       </c>
       <c r="M57" s="41">
-        <v>1.3682762037347344E-4</v>
+        <v>2.192368621666446E-4</v>
       </c>
       <c r="N57" s="41">
-        <v>1.7739862344279942E-4</v>
+        <v>2.8424317729215941E-4</v>
       </c>
       <c r="O57" s="41">
-        <v>1.886787462743085E-3</v>
+        <v>8.0041742102782924E-4</v>
       </c>
       <c r="P57" s="41">
         <f t="shared" si="13"/>
-        <v>3.7552206890068225E-2</v>
+        <v>3.7549080405438293E-2</v>
       </c>
       <c r="Q57" s="65">
         <v>0.82665405489820531</v>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="W57" s="126">
         <f t="shared" si="14"/>
-        <v>2.7304863867462371E-2</v>
+        <v>2.771864467030969E-2</v>
       </c>
       <c r="X57" s="24">
         <v>0.27816363243853898</v>
@@ -8794,7 +8794,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>45</v>
       </c>
@@ -8824,26 +8824,26 @@
         <v>0.12691749530456498</v>
       </c>
       <c r="J58" s="122">
-        <v>2.9692237600741519E-2</v>
+        <v>2.9689765513687925E-2</v>
       </c>
       <c r="K58" s="41">
-        <v>1.5511059965751814E-2</v>
+        <v>1.5509768561208833E-2</v>
       </c>
       <c r="L58" s="41">
-        <v>4.0116054618691867E-3</v>
+        <v>6.0446779880356984E-3</v>
       </c>
       <c r="M58" s="41">
-        <v>2.063300904090259E-4</v>
+        <v>3.1089771105848691E-4</v>
       </c>
       <c r="N58" s="41">
-        <v>3.4758703206167239E-4</v>
+        <v>5.2374334953938248E-4</v>
       </c>
       <c r="O58" s="41">
-        <v>4.2021538977737817E-3</v>
+        <v>1.8876274629129439E-3</v>
       </c>
       <c r="P58" s="41">
         <f t="shared" si="13"/>
-        <v>5.3970974048606998E-2</v>
+        <v>5.3966480586443273E-2</v>
       </c>
       <c r="Q58" s="65">
         <v>0.84777422840863115</v>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="W58" s="126">
         <f t="shared" si="14"/>
-        <v>3.5014419248043348E-2</v>
+        <v>3.7523389181669531E-2</v>
       </c>
       <c r="X58" s="24">
         <v>0.31727856157497403</v>
@@ -8920,7 +8920,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>45</v>
       </c>
@@ -8950,26 +8950,26 @@
         <v>6.6584883197970859E-2</v>
       </c>
       <c r="J59" s="122">
-        <v>2.5896909807864521E-2</v>
+        <v>2.5894753708471642E-2</v>
       </c>
       <c r="K59" s="41">
-        <v>1.7310409564356748E-2</v>
+        <v>1.7308968351338321E-2</v>
       </c>
       <c r="L59" s="41">
-        <v>2.8823499201054495E-3</v>
+        <v>4.3660484013925164E-3</v>
       </c>
       <c r="M59" s="41">
-        <v>3.415278361546554E-5</v>
+        <v>5.1733033962077936E-5</v>
       </c>
       <c r="N59" s="41">
-        <v>2.5072372765683621E-4</v>
+        <v>3.7978453715545221E-4</v>
       </c>
       <c r="O59" s="41">
-        <v>3.0438019328497094E-3</v>
+        <v>1.4129452800394336E-3</v>
       </c>
       <c r="P59" s="41">
         <f t="shared" si="13"/>
-        <v>4.9418347736448737E-2</v>
+        <v>4.9414233312359446E-2</v>
       </c>
       <c r="Q59" s="65">
         <v>1.1995323880100859</v>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="W59" s="126">
         <f t="shared" si="14"/>
-        <v>4.129748699095933E-2</v>
+        <v>4.2157158376123216E-2</v>
       </c>
       <c r="X59" s="24">
         <v>0.200233262107161</v>
@@ -9044,7 +9044,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>45</v>
       </c>
@@ -9074,26 +9074,26 @@
         <v>7.6280915091706411E-2</v>
       </c>
       <c r="J60" s="122">
-        <v>4.5971501735974744E-2</v>
+        <v>4.5967674285992563E-2</v>
       </c>
       <c r="K60" s="41">
-        <v>1.7776907608439509E-2</v>
+        <v>1.7775427556186704E-2</v>
       </c>
       <c r="L60" s="41">
-        <v>3.9053378156374526E-3</v>
+        <v>5.6236457411852452E-3</v>
       </c>
       <c r="M60" s="41">
-        <v>1.9668587701063199E-6</v>
+        <v>2.8322561243567665E-6</v>
       </c>
       <c r="N60" s="41">
-        <v>4.4900789691785061E-4</v>
+        <v>6.4656669063299936E-4</v>
       </c>
       <c r="O60" s="41">
-        <v>4.2181788084113174E-3</v>
+        <v>2.3007328052418209E-3</v>
       </c>
       <c r="P60" s="41">
         <f t="shared" si="13"/>
-        <v>7.2322900724150971E-2</v>
+        <v>7.2316879335363682E-2</v>
       </c>
       <c r="Q60" s="65">
         <v>0.3934534768988564</v>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="W60" s="126">
         <f t="shared" si="14"/>
-        <v>2.863570509926771E-2</v>
+        <v>3.1234848505040373E-2</v>
       </c>
       <c r="X60" s="24">
         <v>0.170672078068141</v>
@@ -9170,7 +9170,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>45</v>
       </c>
@@ -9200,26 +9200,26 @@
         <v>0.11230572675580514</v>
       </c>
       <c r="J61" s="122">
-        <v>6.2778627872998927E-2</v>
+        <v>6.2773401111873878E-2</v>
       </c>
       <c r="K61" s="41">
-        <v>1.816010243036463E-2</v>
+        <v>1.8158590474455019E-2</v>
       </c>
       <c r="L61" s="41">
-        <v>3.8181472795686852E-4</v>
+        <v>8.088537678026806E-4</v>
       </c>
       <c r="M61" s="41">
-        <v>5.9338320259505517E-6</v>
+        <v>1.2570500926932557E-5</v>
       </c>
       <c r="N61" s="41">
-        <v>9.6445828159090325E-5</v>
+        <v>2.0431524973584179E-4</v>
       </c>
       <c r="O61" s="41">
-        <v>9.2463367046875463E-4</v>
+        <v>3.8297124532724123E-4</v>
       </c>
       <c r="P61" s="41">
         <f t="shared" si="13"/>
-        <v>8.2347558361974216E-2</v>
+        <v>8.2340702350121586E-2</v>
       </c>
       <c r="Q61" s="65">
         <v>0.18069188537640715</v>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="W61" s="126">
         <f t="shared" si="14"/>
-        <v>1.7185181922825817E-2</v>
+        <v>1.758419037911459E-2</v>
       </c>
       <c r="X61" s="24">
         <v>0.12303456057287999</v>
@@ -9296,7 +9296,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>45</v>
       </c>
@@ -9326,26 +9326,26 @@
         <v>0.24108588641463546</v>
       </c>
       <c r="J62" s="122">
-        <v>4.4366801250530219E-2</v>
+        <v>4.4363107403119474E-2</v>
       </c>
       <c r="K62" s="41">
-        <v>6.9974706612414188E-4</v>
+        <v>6.9968880727257882E-4</v>
       </c>
       <c r="L62" s="41">
-        <v>5.5275800557144008E-3</v>
+        <v>9.2460338516971406E-3</v>
       </c>
       <c r="M62" s="41">
-        <v>1.3675707677955135E-4</v>
+        <v>2.2875481650522274E-4</v>
       </c>
       <c r="N62" s="41">
-        <v>1.0740492765266983E-4</v>
+        <v>1.7965720747708285E-4</v>
       </c>
       <c r="O62" s="41">
-        <v>1.2186659393939423E-2</v>
+        <v>8.3024604155180742E-3</v>
       </c>
       <c r="P62" s="41">
         <f t="shared" si="13"/>
-        <v>6.3024949770740399E-2</v>
+        <v>6.3019702501589572E-2</v>
       </c>
       <c r="Q62" s="65">
         <v>0.41300483840373869</v>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="W62" s="126">
         <f t="shared" si="14"/>
-        <v>2.0681191763179507E-2</v>
+        <v>1.9328104697545694E-2</v>
       </c>
       <c r="X62" s="24">
         <v>9.7873401729992801E-2</v>
@@ -9422,7 +9422,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
@@ -9452,26 +9452,26 @@
         <v>0.19531287126678792</v>
       </c>
       <c r="J63" s="122">
-        <v>3.0299278902801128E-2</v>
+        <v>3.0296756275301102E-2</v>
       </c>
       <c r="K63" s="41">
-        <v>1.417820841122964E-2</v>
+        <v>1.4177027975927731E-2</v>
       </c>
       <c r="L63" s="41">
-        <v>3.817879189489534E-3</v>
+        <v>1.2671799014491242E-2</v>
       </c>
       <c r="M63" s="41">
-        <v>4.3829605099791826E-4</v>
+        <v>1.4547342101292147E-3</v>
       </c>
       <c r="N63" s="41">
-        <v>3.9894044574698698E-4</v>
+        <v>1.3241102969351103E-3</v>
       </c>
       <c r="O63" s="41">
-        <v>1.4681838142514511E-2</v>
+        <v>3.8847003701499455E-3</v>
       </c>
       <c r="P63" s="41">
         <f t="shared" si="13"/>
-        <v>6.3814441142779718E-2</v>
+        <v>6.3809128142934338E-2</v>
       </c>
       <c r="Q63" s="65">
         <v>0.71394706996978863</v>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="W63" s="126">
         <f t="shared" si="14"/>
-        <v>3.1116373998788707E-2</v>
+        <v>2.9997989546254124E-2</v>
       </c>
       <c r="X63" s="24">
         <v>0.379751460995156</v>
@@ -9546,7 +9546,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>45</v>
       </c>
@@ -9576,26 +9576,26 @@
         <v>8.7151062823116077E-2</v>
       </c>
       <c r="J64" s="122">
-        <v>3.137611738645469E-2</v>
+        <v>3.1373505104597521E-2</v>
       </c>
       <c r="K64" s="41">
-        <v>1.429483292225033E-2</v>
+        <v>1.4293642777139827E-2</v>
       </c>
       <c r="L64" s="41">
-        <v>6.2495383750699272E-3</v>
+        <v>1.5918354895493432E-2</v>
       </c>
       <c r="M64" s="41">
-        <v>4.0295751149881944E-4</v>
+        <v>1.0263831167804153E-3</v>
       </c>
       <c r="N64" s="41">
-        <v>9.7569322499153389E-4</v>
+        <v>2.4852125216960497E-3</v>
       </c>
       <c r="O64" s="41">
-        <v>1.8172596807698161E-2</v>
+        <v>6.3686872888836371E-3</v>
       </c>
       <c r="P64" s="41">
         <f t="shared" si="13"/>
-        <v>7.1471736227963462E-2</v>
+        <v>7.1465785704590876E-2</v>
       </c>
       <c r="Q64" s="65">
         <v>0.93241662043734896</v>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="W64" s="126">
         <f t="shared" si="14"/>
-        <v>5.2016784466671462E-2</v>
+        <v>4.545938965228892E-2</v>
       </c>
       <c r="X64" s="24">
         <v>0.33049028299484901</v>
@@ -9670,7 +9670,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>45</v>
       </c>
@@ -9700,26 +9700,26 @@
         <v>9.0839262939769211E-2</v>
       </c>
       <c r="J65" s="122">
-        <v>3.3783168114621467E-2</v>
+        <v>3.3780355428907151E-2</v>
       </c>
       <c r="K65" s="41">
-        <v>1.7693604386281876E-2</v>
+        <v>1.7692131269606639E-2</v>
       </c>
       <c r="L65" s="41">
-        <v>2.4705290471480272E-3</v>
+        <v>7.2758281121704524E-3</v>
       </c>
       <c r="M65" s="41">
-        <v>1.1010871369067524E-4</v>
+        <v>3.2427551312961384E-4</v>
       </c>
       <c r="N65" s="41">
-        <v>1.6396490641485518E-4</v>
+        <v>4.8288461812654018E-4</v>
       </c>
       <c r="O65" s="41">
-        <v>7.8867041312937793E-3</v>
+        <v>2.5474334242574777E-3</v>
       </c>
       <c r="P65" s="41">
         <f t="shared" si="13"/>
-        <v>6.2108079299450683E-2</v>
+        <v>6.2102908366197869E-2</v>
       </c>
       <c r="Q65" s="65">
         <v>0.55640894419444742</v>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="W65" s="126">
         <f t="shared" si="14"/>
-        <v>2.4521918448935157E-2</v>
+        <v>2.8288150904712858E-2</v>
       </c>
       <c r="X65" s="24">
         <v>0.27728943404204598</v>
@@ -9794,7 +9794,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>45</v>
       </c>
@@ -9824,26 +9824,26 @@
         <v>5.9457063760080753E-2</v>
       </c>
       <c r="J66" s="122">
-        <v>3.7536266947355193E-2</v>
+        <v>3.7533141789837299E-2</v>
       </c>
       <c r="K66" s="41">
-        <v>1.5877594143245414E-2</v>
+        <v>1.587627222216114E-2</v>
       </c>
       <c r="L66" s="41">
-        <v>3.9796556775204533E-3</v>
+        <v>9.9505155147490663E-3</v>
       </c>
       <c r="M66" s="41">
-        <v>5.5777466004393763E-5</v>
+        <v>1.394629550453756E-4</v>
       </c>
       <c r="N66" s="41">
-        <v>3.5793280824725476E-4</v>
+        <v>8.9495580781528701E-4</v>
       </c>
       <c r="O66" s="41">
-        <v>9.7928505806807922E-3</v>
+        <v>3.2001011528089902E-3</v>
       </c>
       <c r="P66" s="41">
         <f t="shared" si="13"/>
-        <v>6.7600077623053492E-2</v>
+        <v>6.7594449442417145E-2</v>
       </c>
       <c r="Q66" s="65">
         <v>0.70279873652495417</v>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="W66" s="126">
         <f t="shared" si="14"/>
-        <v>3.5682001546055234E-2</v>
+        <v>4.1632701324358777E-2</v>
       </c>
       <c r="X66" s="24">
         <v>0.265850239224942</v>
@@ -9920,7 +9920,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>45</v>
       </c>
@@ -9950,26 +9950,26 @@
         <v>0.13244616737908996</v>
       </c>
       <c r="J67" s="122">
-        <v>6.2419681711781062E-2</v>
+        <v>6.2414484835441729E-2</v>
       </c>
       <c r="K67" s="41">
-        <v>2.0442610717483864E-2</v>
+        <v>2.0440908726748915E-2</v>
       </c>
       <c r="L67" s="41">
-        <v>1.1953826174060168E-3</v>
+        <v>1.4643350505353208E-2</v>
       </c>
       <c r="M67" s="41">
-        <v>9.7484379285961546E-6</v>
+        <v>1.1941765873915773E-4</v>
       </c>
       <c r="N67" s="41">
-        <v>1.7615884780758907E-4</v>
+        <v>2.1579331299490874E-3</v>
       </c>
       <c r="O67" s="41">
-        <v>2.1478883769993622E-2</v>
+        <v>5.9375691092856051E-3</v>
       </c>
       <c r="P67" s="41">
         <f t="shared" si="13"/>
-        <v>0.10572246610240074</v>
+        <v>0.10571366396551771</v>
       </c>
       <c r="Q67" s="65">
         <v>0.50444258888076521</v>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="W67" s="126">
         <f t="shared" si="14"/>
-        <v>5.0738925377582809E-2</v>
+        <v>4.32743248385246E-2</v>
       </c>
       <c r="X67" s="24">
         <v>0.216102778855809</v>
@@ -10046,7 +10046,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>45</v>
       </c>
@@ -10071,26 +10071,26 @@
       <c r="H68" s="24"/>
       <c r="I68" s="21"/>
       <c r="J68" s="122">
-        <v>4.7359778800684968E-2</v>
+        <v>4.735583576689921E-2</v>
       </c>
       <c r="K68" s="41">
-        <v>3.515395975052237E-3</v>
+        <v>3.5151032936789083E-3</v>
       </c>
       <c r="L68" s="41">
-        <v>3.7312919784877148E-3</v>
+        <v>1.6120947019722852E-2</v>
       </c>
       <c r="M68" s="41">
-        <v>5.3528896091570107E-5</v>
+        <v>2.3127016135204663E-4</v>
       </c>
       <c r="N68" s="41">
-        <v>1.253316341913082E-4</v>
+        <v>5.4149196748528238E-4</v>
       </c>
       <c r="O68" s="41">
-        <v>2.8566532949849066E-2</v>
+        <v>1.5580272398190476E-2</v>
       </c>
       <c r="P68" s="41">
         <f t="shared" si="13"/>
-        <v>8.3351860234356867E-2</v>
+        <v>8.334492060732876E-2</v>
       </c>
       <c r="Q68" s="65">
         <v>0.31423837455609371</v>
@@ -10110,7 +10110,7 @@
       <c r="V68" s="65"/>
       <c r="W68" s="126">
         <f t="shared" si="14"/>
-        <v>1.6109541393231199E-2</v>
+        <v>1.6511629146065628E-2</v>
       </c>
       <c r="X68" s="24">
         <v>0.15530716308023301</v>
@@ -10165,7 +10165,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>45</v>
       </c>
@@ -10195,26 +10195,26 @@
         <v>0.15593093382436377</v>
       </c>
       <c r="J69" s="122">
-        <v>3.1196644305845761E-2</v>
+        <v>3.119404696638145E-2</v>
       </c>
       <c r="K69" s="41">
-        <v>1.3061945234317319E-2</v>
+        <v>1.3060857735754808E-2</v>
       </c>
       <c r="L69" s="41">
-        <v>4.0459282819291552E-3</v>
+        <v>6.7619952908225594E-3</v>
       </c>
       <c r="M69" s="41">
-        <v>2.995454141803979E-4</v>
+        <v>5.006328681410896E-4</v>
       </c>
       <c r="N69" s="41">
-        <v>4.1057970784679474E-4</v>
+        <v>6.8620545336101014E-4</v>
       </c>
       <c r="O69" s="41">
-        <v>5.7528223002601218E-3</v>
+        <v>2.5591671542759416E-3</v>
       </c>
       <c r="P69" s="41">
         <f t="shared" si="13"/>
-        <v>5.4767465244379553E-2</v>
+        <v>5.4762905468736855E-2</v>
       </c>
       <c r="Q69" s="65">
         <v>0.98630604203037298</v>
@@ -10234,7 +10234,7 @@
       <c r="V69" s="65"/>
       <c r="W69" s="126">
         <f t="shared" si="14"/>
-        <v>4.6771254033092055E-2</v>
+        <v>4.9029512675090856E-2</v>
       </c>
       <c r="X69" s="24">
         <v>0.43438131776077799</v>
@@ -10289,7 +10289,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>45</v>
       </c>
@@ -10319,26 +10319,26 @@
         <v>0.10208778614071395</v>
       </c>
       <c r="J70" s="122">
-        <v>2.9296341099398299E-2</v>
+        <v>2.9293901973505419E-2</v>
       </c>
       <c r="K70" s="41">
-        <v>1.4594724522017819E-2</v>
+        <v>1.4593509408828075E-2</v>
       </c>
       <c r="L70" s="41">
-        <v>7.4998350034449282E-3</v>
+        <v>1.0883181584282654E-2</v>
       </c>
       <c r="M70" s="41">
-        <v>1.8257513907888315E-4</v>
+        <v>2.6493894738463568E-4</v>
       </c>
       <c r="N70" s="41">
-        <v>5.4919363967613293E-4</v>
+        <v>7.9694741321416091E-4</v>
       </c>
       <c r="O70" s="41">
-        <v>7.5999029383024951E-3</v>
+        <v>3.8851206916379333E-3</v>
       </c>
       <c r="P70" s="41">
         <f t="shared" si="13"/>
-        <v>5.9722572341918564E-2</v>
+        <v>5.971760001885288E-2</v>
       </c>
       <c r="Q70" s="65">
         <v>0.87741837775057496</v>
@@ -10358,7 +10358,7 @@
       <c r="V70" s="65"/>
       <c r="W70" s="126">
         <f t="shared" si="14"/>
-        <v>4.5193601172030515E-2</v>
+        <v>4.7738567258487914E-2</v>
       </c>
       <c r="X70" s="24">
         <v>0.36320758683565602</v>
@@ -10413,7 +10413,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
@@ -10443,26 +10443,26 @@
         <v>7.9045677014890112E-2</v>
       </c>
       <c r="J71" s="122">
-        <v>3.6733916704632941E-2</v>
+        <v>3.6730858348400765E-2</v>
       </c>
       <c r="K71" s="41">
-        <v>1.6094182520855264E-2</v>
+        <v>1.6092842567269311E-2</v>
       </c>
       <c r="L71" s="41">
-        <v>3.8100843148073729E-3</v>
+        <v>5.0914919336637662E-3</v>
       </c>
       <c r="M71" s="41">
-        <v>9.9570541908443544E-5</v>
+        <v>1.3305810818598664E-4</v>
       </c>
       <c r="N71" s="41">
-        <v>3.4204635735545825E-4</v>
+        <v>4.5708339383624281E-4</v>
       </c>
       <c r="O71" s="41">
-        <v>3.1148001124144974E-3</v>
+        <v>1.6842545778927346E-3</v>
       </c>
       <c r="P71" s="41">
         <f t="shared" si="13"/>
-        <v>6.0194600551973967E-2</v>
+        <v>6.0189588929248812E-2</v>
       </c>
       <c r="Q71" s="65">
         <v>0.51228172160507413</v>
@@ -10482,7 +10482,7 @@
       <c r="V71" s="65"/>
       <c r="W71" s="126">
         <f t="shared" si="14"/>
-        <v>3.2687852671770171E-2</v>
+        <v>3.3879651901607161E-2</v>
       </c>
       <c r="X71" s="24">
         <v>0.31155655945416899</v>
@@ -10537,7 +10537,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>45</v>
       </c>
@@ -10567,26 +10567,26 @@
         <v>9.4215414292625962E-2</v>
       </c>
       <c r="J72" s="122">
-        <v>4.548586869432706E-2</v>
+        <v>4.5482081676702021E-2</v>
       </c>
       <c r="K72" s="41">
-        <v>1.661066249823261E-2</v>
+        <v>1.6609279544065745E-2</v>
       </c>
       <c r="L72" s="41">
-        <v>4.5867061899483776E-3</v>
+        <v>7.2662076691778809E-3</v>
       </c>
       <c r="M72" s="41">
-        <v>4.176638881488388E-6</v>
+        <v>6.6165837128536496E-6</v>
       </c>
       <c r="N72" s="41">
-        <v>4.7118833604116889E-4</v>
+        <v>7.4645119159202987E-4</v>
       </c>
       <c r="O72" s="41">
-        <v>6.583989721848686E-3</v>
+        <v>3.6258158259779667E-3</v>
       </c>
       <c r="P72" s="41">
         <f t="shared" si="13"/>
-        <v>7.3742592079279384E-2</v>
+        <v>7.3736452491228496E-2</v>
       </c>
       <c r="Q72" s="65">
         <v>0.21410749405185875</v>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="W72" s="126">
         <f t="shared" si="14"/>
-        <v>1.6893750707682037E-2</v>
+        <v>1.7952359387061901E-2</v>
       </c>
       <c r="X72" s="24">
         <v>0.29936628333798498</v>
@@ -10663,7 +10663,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>45</v>
       </c>
@@ -10693,26 +10693,26 @@
         <v>0.15726356942986564</v>
       </c>
       <c r="J73" s="122">
-        <v>6.2725841672819832E-2</v>
+        <v>6.2720619306516207E-2</v>
       </c>
       <c r="K73" s="41">
-        <v>2.2042032582910466E-2</v>
+        <v>2.2040197429086233E-2</v>
       </c>
       <c r="L73" s="41">
-        <v>7.896748565542973E-4</v>
+        <v>1.6950290219397454E-3</v>
       </c>
       <c r="M73" s="41">
-        <v>8.4026500382553316E-6</v>
+        <v>1.8036202568476466E-5</v>
       </c>
       <c r="N73" s="41">
-        <v>1.0092598273351605E-4</v>
+        <v>2.1663659211281549E-4</v>
       </c>
       <c r="O73" s="41">
-        <v>1.7772580077895857E-3</v>
+        <v>7.4633686295260348E-4</v>
       </c>
       <c r="P73" s="41">
         <f t="shared" si="13"/>
-        <v>8.7444135752845958E-2</v>
+        <v>8.7436855415176068E-2</v>
       </c>
       <c r="Q73" s="65">
         <v>0.43989071690171166</v>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="W73" s="126">
         <f t="shared" si="14"/>
-        <v>3.0361834364143577E-2</v>
+        <v>3.0691100572689211E-2</v>
       </c>
       <c r="X73" s="24">
         <v>0.372292416471736</v>
@@ -10789,7 +10789,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>45</v>
       </c>
@@ -10819,26 +10819,26 @@
         <v>0.20463201662621736</v>
       </c>
       <c r="J74" s="122">
-        <v>3.322363439272305E-2</v>
+        <v>3.3220868292115881E-2</v>
       </c>
       <c r="K74" s="41">
-        <v>5.3314062180887011E-4</v>
+        <v>5.3309623411244107E-4</v>
       </c>
       <c r="L74" s="41">
-        <v>4.1817024822519413E-3</v>
+        <v>7.3860610515904266E-3</v>
       </c>
       <c r="M74" s="41">
-        <v>1.1653499501149276E-4</v>
+        <v>2.0583353106894071E-4</v>
       </c>
       <c r="N74" s="41">
-        <v>9.8301975699481515E-5</v>
+        <v>1.7362889806003776E-4</v>
       </c>
       <c r="O74" s="41">
-        <v>1.1530522213827433E-2</v>
+        <v>8.1602121464683496E-3</v>
       </c>
       <c r="P74" s="41">
         <f t="shared" si="13"/>
-        <v>4.9683836681322271E-2</v>
+        <v>4.9679700153416079E-2</v>
       </c>
       <c r="Q74" s="65">
         <v>0.23615928462005967</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="W74" s="126">
         <f t="shared" si="14"/>
-        <v>5.8798629198832551E-3</v>
+        <v>4.0103085279759223E-3</v>
       </c>
       <c r="X74" s="24">
         <v>0.10050144314265801</v>
@@ -10915,7 +10915,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>45</v>
       </c>
@@ -10945,26 +10945,26 @@
         <v>0.20187052349985962</v>
       </c>
       <c r="J75" s="122">
-        <v>1.0108557334296891E-2</v>
+        <v>1.0107715725993314E-2</v>
       </c>
       <c r="K75" s="41">
-        <v>1.7327070208788271E-2</v>
+        <v>1.7325627608654328E-2</v>
       </c>
       <c r="L75" s="41">
-        <v>9.8274043367342547E-3</v>
+        <v>1.9429824450957384E-2</v>
       </c>
       <c r="M75" s="41">
-        <v>2.7022024756834419E-4</v>
+        <v>5.3425419301429797E-4</v>
       </c>
       <c r="N75" s="41">
-        <v>1.39763009511363E-3</v>
+        <v>2.7632634686583788E-3</v>
       </c>
       <c r="O75" s="41">
-        <v>2.0065321102355878E-2</v>
+        <v>8.8306060298296053E-3</v>
       </c>
       <c r="P75" s="41">
         <f t="shared" si="13"/>
-        <v>5.899620332485727E-2</v>
+        <v>5.8991291477107299E-2</v>
       </c>
       <c r="Q75" s="65">
         <v>0.93376779370786356</v>
@@ -10984,7 +10984,7 @@
       <c r="V75" s="65"/>
       <c r="W75" s="126">
         <f t="shared" si="14"/>
-        <v>3.9036269467775171E-2</v>
+        <v>5.0528846219254159E-2</v>
       </c>
       <c r="X75" s="24">
         <v>0.60167259155050801</v>
@@ -11039,7 +11039,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>45</v>
       </c>
@@ -11069,26 +11069,26 @@
         <v>0.19419320526080452</v>
       </c>
       <c r="J76" s="122">
-        <v>1.8353761802271697E-2</v>
+        <v>1.8352233722860965E-2</v>
       </c>
       <c r="K76" s="41">
-        <v>2.1258982294628699E-2</v>
+        <v>2.1257212335233592E-2</v>
       </c>
       <c r="L76" s="41">
-        <v>3.3089222561734615E-3</v>
+        <v>7.0131095766264055E-3</v>
       </c>
       <c r="M76" s="41">
-        <v>4.4334444194991037E-5</v>
+        <v>9.3964829357417591E-5</v>
       </c>
       <c r="N76" s="41">
-        <v>4.60176711180338E-4</v>
+        <v>9.753235193417281E-4</v>
       </c>
       <c r="O76" s="41">
-        <v>7.7282177984270475E-3</v>
+        <v>3.4582923612292587E-3</v>
       </c>
       <c r="P76" s="41">
         <f t="shared" si="13"/>
-        <v>5.1154395306876238E-2</v>
+        <v>5.1150136344649363E-2</v>
       </c>
       <c r="Q76" s="65">
         <v>0.41831744983594688</v>
@@ -11108,7 +11108,7 @@
       <c r="V76" s="65"/>
       <c r="W76" s="126">
         <f t="shared" si="14"/>
-        <v>3.0757245398690809E-2</v>
+        <v>3.4146626828718246E-2</v>
       </c>
       <c r="X76" s="24">
         <v>0.51796295664528103</v>
@@ -11163,7 +11163,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>45</v>
       </c>
@@ -11193,26 +11193,26 @@
         <v>0.18870324009464301</v>
       </c>
       <c r="J77" s="122">
-        <v>1.7440560539173335E-2</v>
+        <v>1.743910849017332E-2</v>
       </c>
       <c r="K77" s="41">
-        <v>3.6120277127550941E-2</v>
+        <v>3.6117269861117879E-2</v>
       </c>
       <c r="L77" s="41">
-        <v>1.5009062980369315E-3</v>
+        <v>6.6084285797340225E-3</v>
       </c>
       <c r="M77" s="41">
-        <v>2.4360104390173812E-4</v>
+        <v>1.0725653577966913E-3</v>
       </c>
       <c r="N77" s="41">
-        <v>2.2558814867991152E-4</v>
+        <v>9.9325532242448681E-4</v>
       </c>
       <c r="O77" s="41">
-        <v>1.0472365980168341E-2</v>
+        <v>3.7671762886378347E-3</v>
       </c>
       <c r="P77" s="41">
         <f t="shared" si="13"/>
-        <v>6.6003299137511198E-2</v>
+        <v>6.5997803899884244E-2</v>
       </c>
       <c r="Q77" s="65">
         <v>0.96923762708495764</v>
@@ -11232,7 +11232,7 @@
       <c r="V77" s="65"/>
       <c r="W77" s="126">
         <f t="shared" si="14"/>
-        <v>3.8465670325794898E-2</v>
+        <v>3.792560014503582E-2</v>
       </c>
       <c r="X77" s="24">
         <v>0.37697841679202398</v>
@@ -11287,7 +11287,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>45</v>
       </c>
@@ -11317,26 +11317,26 @@
         <v>0.15226250091906415</v>
       </c>
       <c r="J78" s="122">
-        <v>1.7102728858027116E-2</v>
+        <v>1.7101304935884246E-2</v>
       </c>
       <c r="K78" s="41">
-        <v>1.847665467456365E-2</v>
+        <v>1.8475116363459283E-2</v>
       </c>
       <c r="L78" s="41">
-        <v>2.9128760477351657E-3</v>
+        <v>1.0690302614971298E-2</v>
       </c>
       <c r="M78" s="41">
-        <v>1.720021419711463E-4</v>
+        <v>6.3125066702528849E-4</v>
       </c>
       <c r="N78" s="41">
-        <v>2.9895831109644975E-4</v>
+        <v>1.0971818788398889E-3</v>
       </c>
       <c r="O78" s="41">
-        <v>1.3834519271902376E-2</v>
+        <v>4.7981870629740901E-3</v>
       </c>
       <c r="P78" s="41">
         <f t="shared" si="13"/>
-        <v>5.279773930529591E-2</v>
+        <v>5.2793343523154096E-2</v>
       </c>
       <c r="Q78" s="65">
         <v>1.3587893083273253</v>
@@ -11356,7 +11356,7 @@
       <c r="V78" s="65"/>
       <c r="W78" s="126">
         <f t="shared" si="14"/>
-        <v>3.367166115349815E-2</v>
+        <v>3.5883313947291905E-2</v>
       </c>
       <c r="X78" s="24">
         <v>0.269598018251961</v>
@@ -11411,7 +11411,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>45</v>
       </c>
@@ -11441,26 +11441,26 @@
         <v>0.16329256366955472</v>
       </c>
       <c r="J79" s="122">
-        <v>4.3274126906822932E-2</v>
+        <v>4.3270524032215756E-2</v>
       </c>
       <c r="K79" s="41">
-        <v>1.694387538686315E-2</v>
+        <v>1.6942464690386017E-2</v>
       </c>
       <c r="L79" s="41">
-        <v>2.1267614530399519E-3</v>
+        <v>1.3240151367631913E-2</v>
       </c>
       <c r="M79" s="41">
-        <v>1.2693648679162545E-4</v>
+        <v>7.9024297567281394E-4</v>
       </c>
       <c r="N79" s="41">
-        <v>2.3651770708365459E-4</v>
+        <v>1.4724407565487253E-3</v>
       </c>
       <c r="O79" s="41">
-        <v>2.0223260192656415E-2</v>
+        <v>7.2087496835330665E-3</v>
       </c>
       <c r="P79" s="41">
         <f t="shared" si="13"/>
-        <v>8.2931478133257727E-2</v>
+        <v>8.2924573505988294E-2</v>
       </c>
       <c r="Q79" s="65">
         <v>0.53790052648925823</v>
@@ -11474,7 +11474,7 @@
       <c r="V79" s="65"/>
       <c r="W79" s="126">
         <f t="shared" si="14"/>
-        <v>2.5348489722298619E-2</v>
+        <v>2.5346379282724707E-2</v>
       </c>
       <c r="X79" s="24">
         <v>0.20686648941891</v>
@@ -11529,7 +11529,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>45</v>
       </c>
@@ -11559,26 +11559,26 @@
         <v>0.34408606626215393</v>
       </c>
       <c r="J80" s="122">
-        <v>4.3870610968846716E-2</v>
+        <v>4.3866958432757397E-2</v>
       </c>
       <c r="K80" s="41">
-        <v>4.2651249744709609E-3</v>
+        <v>4.2647698728995286E-3</v>
       </c>
       <c r="L80" s="41">
-        <v>1.0202287196814961E-2</v>
+        <v>2.3246664184159625E-2</v>
       </c>
       <c r="M80" s="41">
-        <v>1.5844577923712769E-3</v>
+        <v>3.6103039938660962E-3</v>
       </c>
       <c r="N80" s="41">
-        <v>5.0162256493765695E-4</v>
+        <v>1.1429840279288516E-3</v>
       </c>
       <c r="O80" s="41">
-        <v>4.8585958723110688E-2</v>
+        <v>3.2869305856620346E-2</v>
       </c>
       <c r="P80" s="41">
         <f t="shared" si="13"/>
-        <v>0.10901006222055226</v>
+        <v>0.10900098636823186</v>
       </c>
       <c r="Q80" s="65">
         <v>0.28431050195680357</v>
@@ -11596,7 +11596,7 @@
       <c r="V80" s="65"/>
       <c r="W80" s="126">
         <f t="shared" si="14"/>
-        <v>1.4044927313081707E-2</v>
+        <v>1.4061980532361965E-2</v>
       </c>
       <c r="X80" s="24">
         <v>0.216222982416997</v>
@@ -11651,7 +11651,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>45</v>
       </c>
@@ -11681,26 +11681,26 @@
         <v>0.16209009505314867</v>
       </c>
       <c r="J81" s="122">
-        <v>1.6036447614409376E-2</v>
+        <v>1.6035112467659363E-2</v>
       </c>
       <c r="K81" s="41">
-        <v>2.1925408071889783E-2</v>
+        <v>2.1923582627874142E-2</v>
       </c>
       <c r="L81" s="41">
-        <v>1.2202925770582657E-2</v>
+        <v>1.5525154500304559E-2</v>
       </c>
       <c r="M81" s="41">
-        <v>3.6928734200516182E-5</v>
+        <v>4.6982528185641829E-5</v>
       </c>
       <c r="N81" s="41">
-        <v>1.0971392169250309E-3</v>
+        <v>1.3958337673548741E-3</v>
       </c>
       <c r="O81" s="41">
-        <v>8.2041993856800562E-3</v>
+        <v>4.5714288561183782E-3</v>
       </c>
       <c r="P81" s="41">
         <f t="shared" si="13"/>
-        <v>5.9503048793687424E-2</v>
+        <v>5.9498094747496962E-2</v>
       </c>
       <c r="Q81" s="65">
         <v>1.3310592499062808</v>
@@ -11722,7 +11722,7 @@
       </c>
       <c r="W81" s="126">
         <f t="shared" si="14"/>
-        <v>4.6510057460187465E-2</v>
+        <v>4.7410108319083204E-2</v>
       </c>
       <c r="X81" s="24">
         <v>0.45979435767659899</v>
@@ -11777,7 +11777,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>45</v>
       </c>
@@ -11807,26 +11807,26 @@
         <v>0.15103403326251472</v>
       </c>
       <c r="J82" s="122">
-        <v>2.6171398048795824E-2</v>
+        <v>2.6169219096331513E-2</v>
       </c>
       <c r="K82" s="41">
-        <v>2.4107952492419846E-2</v>
+        <v>2.4105945336271948E-2</v>
       </c>
       <c r="L82" s="41">
-        <v>3.4179631331065973E-3</v>
+        <v>4.5734755787721114E-3</v>
       </c>
       <c r="M82" s="41">
-        <v>2.3513268534177472E-5</v>
+        <v>3.1462410573290879E-5</v>
       </c>
       <c r="N82" s="41">
-        <v>3.9168709303806178E-4</v>
+        <v>5.2410493758065565E-4</v>
       </c>
       <c r="O82" s="41">
-        <v>3.5832257748395803E-3</v>
+        <v>2.2867288761641261E-3</v>
       </c>
       <c r="P82" s="41">
         <f t="shared" si="13"/>
-        <v>5.7695739810734087E-2</v>
+        <v>5.7690936235693657E-2</v>
       </c>
       <c r="Q82" s="65">
         <v>0.8119294708774818</v>
@@ -11848,7 +11848,7 @@
       </c>
       <c r="W82" s="126">
         <f t="shared" si="14"/>
-        <v>4.7729005920348191E-2</v>
+        <v>4.8317967428517149E-2</v>
       </c>
       <c r="X82" s="24">
         <v>0.41512256175551698</v>
@@ -11903,7 +11903,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>45</v>
       </c>
@@ -11933,26 +11933,26 @@
         <v>0.11013834618194022</v>
       </c>
       <c r="J83" s="122">
-        <v>4.0756225158280049E-2</v>
+        <v>4.0752831916655019E-2</v>
       </c>
       <c r="K83" s="41">
-        <v>1.8360030163542963E-2</v>
+        <v>1.8358501562247189E-2</v>
       </c>
       <c r="L83" s="41">
-        <v>2.3413023748042249E-3</v>
+        <v>3.7712169395941911E-3</v>
       </c>
       <c r="M83" s="41">
-        <v>1.4511326189430184E-4</v>
+        <v>2.3373896396501078E-4</v>
       </c>
       <c r="N83" s="41">
-        <v>3.3307453741824477E-4</v>
+        <v>5.3649470960119615E-4</v>
       </c>
       <c r="O83" s="41">
-        <v>3.733111937644808E-3</v>
+        <v>2.0106059485127826E-3</v>
       </c>
       <c r="P83" s="41">
         <f t="shared" si="13"/>
-        <v>6.5668857433584596E-2</v>
+        <v>6.5663390040575392E-2</v>
       </c>
       <c r="Q83" s="65">
         <v>0.35416143365067471</v>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="W83" s="126">
         <f t="shared" si="14"/>
-        <v>2.4120318744263448E-2</v>
+        <v>2.5097102284128023E-2</v>
       </c>
       <c r="X83" s="24">
         <v>0.22640904173496901</v>
@@ -12029,7 +12029,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>45</v>
       </c>
@@ -12059,26 +12059,26 @@
         <v>0.13545259926004619</v>
       </c>
       <c r="J84" s="122">
-        <v>6.0271283364491862E-2</v>
+        <v>6.0266265357384677E-2</v>
       </c>
       <c r="K84" s="41">
-        <v>1.7293748919925224E-2</v>
+        <v>1.7292309094022306E-2</v>
       </c>
       <c r="L84" s="41">
-        <v>1.0233894984072629E-3</v>
+        <v>2.1252513420798001E-3</v>
       </c>
       <c r="M84" s="41">
-        <v>1.2762831918008971E-4</v>
+        <v>2.6504303302605565E-4</v>
       </c>
       <c r="N84" s="41">
-        <v>2.3498304878942914E-4</v>
+        <v>4.8798433107137421E-4</v>
       </c>
       <c r="O84" s="41">
-        <v>4.0694963856285271E-3</v>
+        <v>2.5767643374147906E-3</v>
       </c>
       <c r="P84" s="41">
         <f t="shared" si="13"/>
-        <v>8.3020529536422374E-2</v>
+        <v>8.3013617494999012E-2</v>
       </c>
       <c r="Q84" s="65">
         <v>0.2456145984841567</v>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="W84" s="126">
         <f t="shared" si="14"/>
-        <v>1.7885793119207197E-2</v>
+        <v>1.8635747969245203E-2</v>
       </c>
       <c r="X84" s="24">
         <v>0.201761273322316</v>
@@ -12155,7 +12155,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>45</v>
       </c>
@@ -12180,26 +12180,26 @@
       <c r="H85" s="24"/>
       <c r="I85" s="21"/>
       <c r="J85" s="122">
-        <v>5.2448368497949822E-2</v>
+        <v>5.2444001803378354E-2</v>
       </c>
       <c r="K85" s="41">
-        <v>3.5320566194837646E-3</v>
+        <v>3.5317625509949224E-3</v>
       </c>
       <c r="L85" s="41">
-        <v>1.0482993397240518E-2</v>
+        <v>1.6388527647918996E-2</v>
       </c>
       <c r="M85" s="41">
-        <v>4.6243659028921615E-4</v>
+        <v>7.2294759313300434E-4</v>
       </c>
       <c r="N85" s="41">
-        <v>7.3290924946611759E-4</v>
+        <v>1.145789474736559E-3</v>
       </c>
       <c r="O85" s="41">
-        <v>1.9048536429120289E-2</v>
+        <v>1.2467052722397674E-2</v>
       </c>
       <c r="P85" s="41">
         <f t="shared" si="13"/>
-        <v>8.6707300783549726E-2</v>
+        <v>8.6700081792559516E-2</v>
       </c>
       <c r="Q85" s="65">
         <v>0.15014746695958195</v>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="W85" s="126">
         <f t="shared" si="14"/>
-        <v>1.6593912791769569E-2</v>
+        <v>1.2845821358549106E-2</v>
       </c>
       <c r="X85" s="24">
         <v>0.20453701519024201</v>
@@ -12276,7 +12276,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>45</v>
       </c>
@@ -12306,26 +12306,26 @@
         <v>0.12214926958599441</v>
       </c>
       <c r="J86" s="122">
-        <v>2.8589006016998413E-2</v>
+        <v>2.8586625781712675E-2</v>
       </c>
       <c r="K86" s="41">
-        <v>7.9971093271330516E-4</v>
+        <v>7.9964435116866182E-4</v>
       </c>
       <c r="L86" s="41">
-        <v>8.1877473599563204E-3</v>
+        <v>1.2385525435830371E-2</v>
       </c>
       <c r="M86" s="41">
-        <v>6.0732785029570511E-4</v>
+        <v>9.18698905453986E-4</v>
       </c>
       <c r="N86" s="41">
-        <v>4.2784615382983804E-4</v>
+        <v>6.4719869677438611E-4</v>
       </c>
       <c r="O86" s="41">
-        <v>1.4320247457609684E-2</v>
+        <v>9.5897856496871148E-3</v>
       </c>
       <c r="P86" s="41">
         <f t="shared" si="13"/>
-        <v>5.2931885771403273E-2</v>
+        <v>5.2927478820627191E-2</v>
       </c>
       <c r="Q86" s="65">
         <v>0.17890909983388198</v>
@@ -12347,7 +12347,7 @@
       </c>
       <c r="W86" s="126">
         <f t="shared" si="14"/>
-        <v>9.1106913336732737E-3</v>
+        <v>9.250870984358504E-3</v>
       </c>
       <c r="X86" s="24">
         <v>5.3690821541792902E-2</v>
@@ -12402,7 +12402,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>45</v>
       </c>
@@ -12432,26 +12432,26 @@
         <v>0.20457272696578566</v>
       </c>
       <c r="J87" s="122">
-        <v>2.2391906115972544E-2</v>
+        <v>2.2390041832722526E-2</v>
       </c>
       <c r="K87" s="41">
-        <v>2.6123890468634638E-2</v>
+        <v>2.6121715471509616E-2</v>
       </c>
       <c r="L87" s="41">
-        <v>2.4246637212683844E-2</v>
+        <v>5.3223059593657626E-2</v>
       </c>
       <c r="M87" s="41">
-        <v>4.1720241782251994E-4</v>
+        <v>9.1578840197973136E-4</v>
       </c>
       <c r="N87" s="41">
-        <v>1.7022918985728211E-3</v>
+        <v>3.7366494317878744E-3</v>
       </c>
       <c r="O87" s="41">
-        <v>4.5477817449696811E-2</v>
+        <v>1.3962470038655847E-2</v>
       </c>
       <c r="P87" s="41">
         <f t="shared" si="13"/>
-        <v>0.12035974556338318</v>
+        <v>0.12034972477031322</v>
       </c>
       <c r="Q87" s="65">
         <v>0.74354598775749736</v>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="W87" s="126">
         <f t="shared" si="14"/>
-        <v>3.3651214880713806E-2</v>
+        <v>9.4656202612775457E-3</v>
       </c>
       <c r="X87" s="24">
         <v>0.54043705750811499</v>
@@ -12528,7 +12528,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>45</v>
       </c>
@@ -12558,26 +12558,26 @@
         <v>0.12566912649829057</v>
       </c>
       <c r="J88" s="122">
-        <v>2.6525065589995761E-2</v>
+        <v>2.652285719222788E-2</v>
       </c>
       <c r="K88" s="41">
-        <v>2.6673691734875032E-2</v>
+        <v>2.6671470962938072E-2</v>
       </c>
       <c r="L88" s="41">
-        <v>8.4636849389057786E-3</v>
+        <v>2.3290487986755124E-2</v>
       </c>
       <c r="M88" s="41">
-        <v>1.5180114684368057E-4</v>
+        <v>4.1772854406315859E-4</v>
       </c>
       <c r="N88" s="41">
-        <v>1.1060110748720294E-3</v>
+        <v>3.0435369272920308E-3</v>
       </c>
       <c r="O88" s="41">
-        <v>3.2277833936736444E-2</v>
+        <v>1.5244080900333514E-2</v>
       </c>
       <c r="P88" s="41">
         <f t="shared" si="13"/>
-        <v>9.5198088422228738E-2</v>
+        <v>9.5190162513609775E-2</v>
       </c>
       <c r="Q88" s="65">
         <v>0.63836038097373171</v>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="W88" s="126">
         <f t="shared" si="14"/>
-        <v>5.2718298801522331E-2</v>
+        <v>5.4128581591542525E-2</v>
       </c>
       <c r="X88" s="24">
         <v>0.49453730678449098</v>
@@ -12654,7 +12654,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>45</v>
       </c>
@@ -12684,26 +12684,26 @@
         <v>0.11442403362428091</v>
       </c>
       <c r="J89" s="122">
-        <v>3.2289318649553048E-2</v>
+        <v>3.2286630337285162E-2</v>
       </c>
       <c r="K89" s="41">
-        <v>2.6223854335223791E-2</v>
+        <v>2.6221671015405693E-2</v>
       </c>
       <c r="L89" s="41">
-        <v>4.0712905573482032E-3</v>
+        <v>1.2251581785561216E-2</v>
       </c>
       <c r="M89" s="41">
-        <v>1.7407959652205077E-4</v>
+        <v>5.2385119262442193E-4</v>
       </c>
       <c r="N89" s="41">
-        <v>5.5543080412662281E-4</v>
+        <v>1.6714370608345043E-3</v>
       </c>
       <c r="O89" s="41">
-        <v>1.7696174832617866E-2</v>
+        <v>8.0482327205571649E-3</v>
       </c>
       <c r="P89" s="41">
         <f t="shared" si="13"/>
-        <v>8.1010148775391588E-2</v>
+        <v>8.1003404112268168E-2</v>
       </c>
       <c r="Q89" s="65">
         <v>0.79719759395725787</v>
@@ -12725,7 +12725,7 @@
       </c>
       <c r="W89" s="126">
         <f t="shared" si="14"/>
-        <v>5.8414353976359051E-2</v>
+        <v>6.5229760115887034E-2</v>
       </c>
       <c r="X89" s="24">
         <v>0.47573495417896999</v>
@@ -12780,7 +12780,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>45</v>
       </c>
@@ -12810,26 +12810,26 @@
         <v>0.16281695005603322</v>
       </c>
       <c r="J90" s="122">
-        <v>3.6939782885331417E-2</v>
+        <v>3.6936707389295671E-2</v>
       </c>
       <c r="K90" s="41">
-        <v>2.379140024822083E-2</v>
+        <v>2.3789419447267687E-2</v>
       </c>
       <c r="L90" s="41">
-        <v>7.3321585089886369E-3</v>
+        <v>2.0666649726073762E-2</v>
       </c>
       <c r="M90" s="41">
-        <v>4.4449492354122584E-4</v>
+        <v>1.2528671984631651E-3</v>
       </c>
       <c r="N90" s="41">
-        <v>6.7673744091664061E-4</v>
+        <v>1.9074731718904006E-3</v>
       </c>
       <c r="O90" s="41">
-        <v>2.4098099236996049E-2</v>
+        <v>8.7217898741342517E-3</v>
       </c>
       <c r="P90" s="41">
         <f t="shared" si="13"/>
-        <v>9.3282673243994793E-2</v>
+        <v>9.3274906807124941E-2</v>
       </c>
       <c r="Q90" s="65">
         <v>0.63020146496762752</v>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="W90" s="126">
         <f t="shared" si="14"/>
-        <v>4.6238402787101618E-2</v>
+        <v>4.3793542067639746E-2</v>
       </c>
       <c r="X90" s="24">
         <v>0.28676963213632101</v>
@@ -12906,7 +12906,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>45</v>
       </c>
@@ -12936,26 +12936,26 @@
         <v>0.16582421301118794</v>
       </c>
       <c r="J91" s="122">
-        <v>7.079685168020361E-2</v>
+        <v>7.0790957345703551E-2</v>
       </c>
       <c r="K91" s="41">
-        <v>1.4827973544059195E-2</v>
+        <v>1.4826739011252263E-2</v>
       </c>
       <c r="L91" s="41">
-        <v>4.0068160078063899E-3</v>
+        <v>2.3391420284862966E-2</v>
       </c>
       <c r="M91" s="41">
         <v>0</v>
       </c>
       <c r="N91" s="41">
-        <v>7.4841016764858298E-4</v>
+        <v>4.3691491555453198E-3</v>
       </c>
       <c r="O91" s="41">
-        <v>3.5277511110770182E-2</v>
+        <v>1.2268834839632025E-2</v>
       </c>
       <c r="P91" s="41">
         <f t="shared" si="13"/>
-        <v>0.12565756251048796</v>
+        <v>0.12564710063699613</v>
       </c>
       <c r="Q91" s="65">
         <v>0.38004188348638773</v>
@@ -12977,7 +12977,7 @@
       </c>
       <c r="W91" s="126">
         <f t="shared" si="14"/>
-        <v>4.4687168775958144E-2</v>
+        <v>3.3066972265790577E-2</v>
       </c>
       <c r="X91" s="24">
         <v>0.206533018691405</v>
@@ -13032,7 +13032,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>45</v>
       </c>
@@ -13057,26 +13057,26 @@
       <c r="H92" s="24"/>
       <c r="I92" s="21"/>
       <c r="J92" s="122">
-        <v>7.0026173157588814E-2</v>
+        <v>7.002034298748161E-2</v>
       </c>
       <c r="K92" s="41">
-        <v>4.4150707743547046E-3</v>
+        <v>4.4147031887436525E-3</v>
       </c>
       <c r="L92" s="41">
-        <v>2.0461953761985993E-2</v>
+        <v>6.5435905186163393E-2</v>
       </c>
       <c r="M92" s="41">
         <v>0</v>
       </c>
       <c r="N92" s="41">
-        <v>1.3283296120428995E-3</v>
+        <v>4.2479057259474547E-3</v>
       </c>
       <c r="O92" s="41">
-        <v>0.13368170711496624</v>
+        <v>8.5775235443132827E-2</v>
       </c>
       <c r="P92" s="41">
         <f t="shared" si="13"/>
-        <v>0.22991323442093864</v>
+        <v>0.22989409253146892</v>
       </c>
       <c r="Q92" s="65">
         <v>0.43170300218237534</v>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="W92" s="126">
         <f t="shared" si="14"/>
-        <v>4.7584882723825703E-2</v>
+        <v>2.6655719297743564E-2</v>
       </c>
       <c r="X92" s="24">
         <v>0.21735041563246901</v>
@@ -13153,7 +13153,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>45</v>
       </c>
@@ -13183,26 +13183,26 @@
         <v>0.19926712882819472</v>
       </c>
       <c r="J93" s="122">
-        <v>1.8881623804062653E-2</v>
+        <v>1.8880051776437638E-2</v>
       </c>
       <c r="K93" s="41">
-        <v>2.3574811870610966E-2</v>
+        <v>2.3572849102159499E-2</v>
       </c>
       <c r="L93" s="41">
-        <v>2.7283609852575684E-2</v>
+        <v>3.3745087890262676E-2</v>
       </c>
       <c r="M93" s="41">
-        <v>2.7274766686041394E-4</v>
+        <v>3.3734150428777902E-4</v>
       </c>
       <c r="N93" s="41">
-        <v>3.1615158070037396E-3</v>
+        <v>3.9102460909777427E-3</v>
       </c>
       <c r="O93" s="41">
-        <v>1.7930478483144548E-2</v>
+        <v>1.0651626007528881E-2</v>
       </c>
       <c r="P93" s="41">
         <f t="shared" si="13"/>
-        <v>9.1104787484258015E-2</v>
+        <v>9.1097202371654223E-2</v>
       </c>
       <c r="Q93" s="65">
         <v>0.49516093658080801</v>
@@ -13222,7 +13222,7 @@
       <c r="V93" s="65"/>
       <c r="W93" s="126">
         <f t="shared" si="14"/>
-        <v>2.7070655354356481E-2</v>
+        <v>2.6374662732594437E-2</v>
       </c>
       <c r="X93" s="24">
         <v>0.60627510030544596</v>
@@ -13277,7 +13277,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>45</v>
       </c>
@@ -13307,26 +13307,26 @@
         <v>0.16983154041601659</v>
       </c>
       <c r="J94" s="122">
-        <v>2.2719180557082937E-2</v>
+        <v>2.2717289025940064E-2</v>
       </c>
       <c r="K94" s="41">
-        <v>2.1308964227923274E-2</v>
+        <v>2.1307190107181625E-2</v>
       </c>
       <c r="L94" s="41">
-        <v>2.1108549361464501E-2</v>
+        <v>2.7454940419320298E-2</v>
       </c>
       <c r="M94" s="41">
-        <v>4.2429950410467396E-4</v>
+        <v>5.5186727451804213E-4</v>
       </c>
       <c r="N94" s="41">
-        <v>9.9178883608259352E-4</v>
+        <v>1.2899751156232678E-3</v>
       </c>
       <c r="O94" s="41">
-        <v>1.3924279329481292E-2</v>
+        <v>7.1490995936612095E-3</v>
       </c>
       <c r="P94" s="41">
         <f t="shared" si="13"/>
-        <v>8.0477061816139284E-2</v>
+        <v>8.0470361536244511E-2</v>
       </c>
       <c r="Q94" s="65">
         <v>0.90046125956285628</v>
@@ -13346,7 +13346,7 @@
       <c r="V94" s="65"/>
       <c r="W94" s="126">
         <f t="shared" si="14"/>
-        <v>2.307073228333691E-2</v>
+        <v>1.9629619145952577E-2</v>
       </c>
       <c r="X94" s="24">
         <v>0.55788596916069</v>
@@ -13401,7 +13401,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>45</v>
       </c>
@@ -13431,26 +13431,26 @@
         <v>0.24707797942978565</v>
       </c>
       <c r="J95" s="122">
-        <v>2.4144407961918527E-2</v>
+        <v>2.4142397770597079E-2</v>
       </c>
       <c r="K95" s="41">
-        <v>2.2341924182677966E-2</v>
+        <v>2.2340064060774489E-2</v>
       </c>
       <c r="L95" s="41">
-        <v>7.3999906320100636E-3</v>
+        <v>9.8790757997735887E-3</v>
       </c>
       <c r="M95" s="41">
-        <v>6.6089360546807723E-6</v>
+        <v>8.8230084991760521E-6</v>
       </c>
       <c r="N95" s="41">
-        <v>3.5620136376840564E-4</v>
+        <v>4.7553307127565285E-4</v>
       </c>
       <c r="O95" s="41">
-        <v>5.7315075554102667E-3</v>
+        <v>3.1297531118589113E-3</v>
       </c>
       <c r="P95" s="41">
         <f t="shared" si="13"/>
-        <v>5.9980640631839915E-2</v>
+        <v>5.9975646822778901E-2</v>
       </c>
       <c r="Q95" s="65">
         <v>0.711119309843808</v>
@@ -13470,7 +13470,7 @@
       <c r="V95" s="65"/>
       <c r="W95" s="126">
         <f t="shared" si="14"/>
-        <v>2.2141461756361756E-2</v>
+        <v>2.109024364820317E-2</v>
       </c>
       <c r="X95" s="24">
         <v>0.42583515919616799</v>
@@ -13525,7 +13525,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>45</v>
       </c>
@@ -13555,26 +13555,26 @@
         <v>0.10766871457436709</v>
       </c>
       <c r="J96" s="122">
-        <v>3.0109248582156384E-2</v>
+        <v>3.0106741776013506E-2</v>
       </c>
       <c r="K96" s="41">
-        <v>1.5177847077121271E-2</v>
+        <v>1.5176583414888558E-2</v>
       </c>
       <c r="L96" s="41">
-        <v>6.7052489815042455E-3</v>
+        <v>9.7199666849400752E-3</v>
       </c>
       <c r="M96" s="41">
-        <v>2.5197139290611444E-5</v>
+        <v>3.6525915016148124E-5</v>
       </c>
       <c r="N96" s="41">
-        <v>1.0120769438870816E-3</v>
+        <v>1.4671124374820012E-3</v>
       </c>
       <c r="O96" s="41">
-        <v>7.5974890467346134E-3</v>
+        <v>4.1151299103690192E-3</v>
       </c>
       <c r="P96" s="41">
         <f t="shared" si="13"/>
-        <v>6.0627107770694202E-2</v>
+        <v>6.0622060138709306E-2</v>
       </c>
       <c r="Q96" s="65">
         <v>0.85516592047542839</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="W96" s="126">
         <f t="shared" si="14"/>
-        <v>3.393695436605064E-2</v>
+        <v>3.5121741655690313E-2</v>
       </c>
       <c r="X96" s="24">
         <v>0.36186496525895301</v>
@@ -13651,7 +13651,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>45</v>
       </c>
@@ -13676,26 +13676,26 @@
       <c r="H97" s="24"/>
       <c r="I97" s="21"/>
       <c r="J97" s="122">
-        <v>4.7866526322404283E-2</v>
+        <v>4.7862541098332823E-2</v>
       </c>
       <c r="K97" s="41">
-        <v>1.7826889541734093E-3</v>
+        <v>1.7825405328134748E-3</v>
       </c>
       <c r="L97" s="41">
-        <v>4.6356788574105121E-2</v>
+        <v>5.7739864554777164E-2</v>
       </c>
       <c r="M97" s="41">
         <v>0</v>
       </c>
       <c r="N97" s="41">
-        <v>3.2429517324962368E-3</v>
+        <v>4.0392701813820008E-3</v>
       </c>
       <c r="O97" s="41">
-        <v>8.1042329965444554E-2</v>
+        <v>6.8852058667160418E-2</v>
       </c>
       <c r="P97" s="41">
         <f t="shared" si="13"/>
-        <v>0.18029128554862361</v>
+        <v>0.18027627503446586</v>
       </c>
       <c r="Q97" s="65">
         <v>0.58058197183448135</v>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="W97" s="126">
         <f t="shared" si="14"/>
-        <v>6.5479415238335614E-2</v>
+        <v>6.6016976795857135E-2</v>
       </c>
       <c r="X97" s="24">
         <v>0.43733495691067298</v>
@@ -13772,7 +13772,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>45</v>
       </c>
@@ -13802,26 +13802,26 @@
         <v>0.21143379839263396</v>
       </c>
       <c r="J98" s="122">
-        <v>3.3265863352866326E-2</v>
+        <v>3.3263093736402009E-2</v>
       </c>
       <c r="K98" s="41">
-        <v>5.9978319953497882E-4</v>
+        <v>5.9973326337649615E-4</v>
       </c>
       <c r="L98" s="41">
-        <v>3.4405657701432515E-2</v>
+        <v>4.1218428298197954E-2</v>
       </c>
       <c r="M98" s="41">
-        <v>2.660737283481103E-3</v>
+        <v>3.1875980948023429E-3</v>
       </c>
       <c r="N98" s="41">
-        <v>1.7658426757572038E-3</v>
+        <v>2.1155026405312934E-3</v>
       </c>
       <c r="O98" s="41">
-        <v>5.068213022959045E-2</v>
+        <v>4.298538615771292E-2</v>
       </c>
       <c r="P98" s="41">
         <f t="shared" si="13"/>
-        <v>0.12338001444266257</v>
+        <v>0.12336974219102304</v>
       </c>
       <c r="Q98" s="65">
         <v>0.27960002741371798</v>
@@ -13843,7 +13843,7 @@
       </c>
       <c r="W98" s="126">
         <f t="shared" si="14"/>
-        <v>2.355143209331792E-2</v>
+        <v>2.2071449326065563E-2</v>
       </c>
       <c r="X98" s="24">
         <v>0.104298027023611</v>
@@ -13898,7 +13898,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="85" t="s">
         <v>44</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>0.59872989722360126</v>
       </c>
     </row>
-    <row r="100" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="85" t="s">
         <v>44</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>0.84142816166722512</v>
       </c>
     </row>
-    <row r="101" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="85" t="s">
         <v>44</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>0.20777718025319794</v>
       </c>
     </row>
-    <row r="102" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="85" t="s">
         <v>44</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>0.21355358838561711</v>
       </c>
     </row>
-    <row r="103" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="85" t="s">
         <v>44</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>0.2039217563821889</v>
       </c>
     </row>
-    <row r="104" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="85" t="s">
         <v>44</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>0.26746338414016346</v>
       </c>
     </row>
-    <row r="105" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="85" t="s">
         <v>44</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>0.27864300314832929</v>
       </c>
     </row>
-    <row r="106" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="85" t="s">
         <v>44</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>0.61222942949472969</v>
       </c>
     </row>
-    <row r="107" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="85" t="s">
         <v>44</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>0.44415977483855323</v>
       </c>
     </row>
-    <row r="108" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="85" t="s">
         <v>45</v>
       </c>
@@ -14804,7 +14804,7 @@
         <v>0.33873259175190157</v>
       </c>
     </row>
-    <row r="109" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="85" t="s">
         <v>45</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>0.57997821275797723</v>
       </c>
     </row>
-    <row r="110" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="85" t="s">
         <v>45</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>0.28254639032684392</v>
       </c>
     </row>
-    <row r="111" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="85" t="s">
         <v>45</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>2.8294433188172103</v>
       </c>
     </row>
-    <row r="112" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="85" t="s">
         <v>45</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>0.44137984832345162</v>
       </c>
     </row>
-    <row r="113" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="85" t="s">
         <v>45</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>0.23211405586276546</v>
       </c>
     </row>
-    <row r="114" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="85" t="s">
         <v>45</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>0.53954073150323267</v>
       </c>
     </row>
-    <row r="115" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="85" t="s">
         <v>45</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>1.2722728420405407</v>
       </c>
     </row>
-    <row r="116" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="85" t="s">
         <v>45</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>0.36610284331186388</v>
       </c>
     </row>
-    <row r="117" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="85" t="s">
         <v>45</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>0.28580886340864603</v>
       </c>
     </row>
-    <row r="118" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="85" t="s">
         <v>45</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>0.33217579171679318</v>
       </c>
     </row>
-    <row r="119" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="104" t="s">
         <v>45</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>0.23243394759674119</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="15"/>
@@ -15884,7 +15884,7 @@
       <c r="AF120" s="41"/>
       <c r="AG120" s="41"/>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="15"/>
@@ -15918,7 +15918,7 @@
       <c r="AF121" s="41"/>
       <c r="AG121" s="41"/>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B122" s="1"/>
       <c r="C122" s="9"/>
       <c r="D122" s="5"/>
@@ -15937,7 +15937,7 @@
       <c r="AF122" s="41"/>
       <c r="AG122" s="41"/>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B123" s="1"/>
       <c r="C123" s="9"/>
       <c r="D123" s="5"/>
@@ -15956,7 +15956,7 @@
       <c r="AF123" s="41"/>
       <c r="AG123" s="41"/>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B124" s="1"/>
       <c r="C124" s="9"/>
       <c r="D124" s="5"/>
@@ -15975,7 +15975,7 @@
       <c r="AF124" s="41"/>
       <c r="AG124" s="41"/>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B125" s="1"/>
       <c r="C125" s="6"/>
       <c r="D125" s="5"/>
@@ -15994,7 +15994,7 @@
       <c r="AF125" s="41"/>
       <c r="AG125" s="41"/>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B126" s="1"/>
       <c r="C126" s="9"/>
       <c r="D126" s="5"/>
@@ -16013,7 +16013,7 @@
       <c r="AF126" s="41"/>
       <c r="AG126" s="41"/>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B127" s="1"/>
       <c r="C127" s="9"/>
       <c r="D127" s="5"/>
@@ -16032,7 +16032,7 @@
       <c r="AF127" s="41"/>
       <c r="AG127" s="41"/>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B128" s="1"/>
       <c r="C128" s="9"/>
       <c r="D128" s="5"/>
@@ -16051,7 +16051,7 @@
       <c r="AF128" s="41"/>
       <c r="AG128" s="41"/>
     </row>
-    <row r="129" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B129" s="1"/>
       <c r="C129" s="9"/>
       <c r="D129" s="1"/>
@@ -16070,7 +16070,7 @@
       <c r="AF129" s="41"/>
       <c r="AG129" s="41"/>
     </row>
-    <row r="130" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B130" s="1"/>
       <c r="C130" s="9"/>
       <c r="D130" s="1"/>
@@ -16089,7 +16089,7 @@
       <c r="AF130" s="41"/>
       <c r="AG130" s="41"/>
     </row>
-    <row r="131" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B131" s="1"/>
       <c r="C131" s="9"/>
       <c r="D131" s="1"/>
@@ -16108,7 +16108,7 @@
       <c r="AF131" s="41"/>
       <c r="AG131" s="41"/>
     </row>
-    <row r="132" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B132" s="1"/>
       <c r="C132" s="9"/>
       <c r="D132" s="1"/>
@@ -16127,7 +16127,7 @@
       <c r="AF132" s="41"/>
       <c r="AG132" s="41"/>
     </row>
-    <row r="133" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B133" s="1"/>
       <c r="C133" s="9"/>
       <c r="D133" s="1"/>
@@ -16146,7 +16146,7 @@
       <c r="AF133" s="41"/>
       <c r="AG133" s="41"/>
     </row>
-    <row r="134" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B134" s="1"/>
       <c r="C134" s="9"/>
       <c r="D134" s="1"/>
@@ -16165,7 +16165,7 @@
       <c r="AF134" s="41"/>
       <c r="AG134" s="41"/>
     </row>
-    <row r="135" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B135" s="1"/>
       <c r="C135" s="9"/>
       <c r="D135" s="1"/>
@@ -16184,7 +16184,7 @@
       <c r="AF135" s="41"/>
       <c r="AG135" s="41"/>
     </row>
-    <row r="136" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B136" s="1"/>
       <c r="C136" s="9"/>
       <c r="D136" s="1"/>
@@ -16203,7 +16203,7 @@
       <c r="AF136" s="41"/>
       <c r="AG136" s="41"/>
     </row>
-    <row r="137" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B137" s="1"/>
       <c r="C137" s="9"/>
       <c r="D137" s="1"/>
@@ -16222,7 +16222,7 @@
       <c r="AF137" s="41"/>
       <c r="AG137" s="41"/>
     </row>
-    <row r="138" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B138" s="1"/>
       <c r="C138" s="9"/>
       <c r="D138" s="1"/>
@@ -16241,7 +16241,7 @@
       <c r="AF138" s="41"/>
       <c r="AG138" s="41"/>
     </row>
-    <row r="139" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B139" s="1"/>
       <c r="C139" s="9"/>
       <c r="D139" s="1"/>
@@ -16260,7 +16260,7 @@
       <c r="AF139" s="41"/>
       <c r="AG139" s="41"/>
     </row>
-    <row r="140" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B140" s="1"/>
       <c r="C140" s="9"/>
       <c r="D140" s="1"/>
@@ -16279,7 +16279,7 @@
       <c r="AF140" s="41"/>
       <c r="AG140" s="41"/>
     </row>
-    <row r="141" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B141" s="1"/>
       <c r="C141" s="9"/>
       <c r="D141" s="1"/>
@@ -16298,7 +16298,7 @@
       <c r="AF141" s="41"/>
       <c r="AG141" s="41"/>
     </row>
-    <row r="142" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B142" s="1"/>
       <c r="C142" s="9"/>
       <c r="D142" s="1"/>
@@ -16317,7 +16317,7 @@
       <c r="AF142" s="41"/>
       <c r="AG142" s="41"/>
     </row>
-    <row r="143" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B143" s="1"/>
       <c r="C143" s="9"/>
       <c r="D143" s="1"/>
@@ -16336,7 +16336,7 @@
       <c r="AF143" s="41"/>
       <c r="AG143" s="41"/>
     </row>
-    <row r="144" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B144" s="1"/>
       <c r="C144" s="9"/>
       <c r="D144" s="1"/>
@@ -16355,7 +16355,7 @@
       <c r="AF144" s="41"/>
       <c r="AG144" s="41"/>
     </row>
-    <row r="145" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B145" s="1"/>
       <c r="C145" s="9"/>
       <c r="D145" s="1"/>
@@ -16374,7 +16374,7 @@
       <c r="AF145" s="41"/>
       <c r="AG145" s="41"/>
     </row>
-    <row r="146" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B146" s="1"/>
       <c r="C146" s="9"/>
       <c r="D146" s="1"/>
@@ -16393,7 +16393,7 @@
       <c r="AF146" s="41"/>
       <c r="AG146" s="41"/>
     </row>
-    <row r="147" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B147" s="1"/>
       <c r="C147" s="9"/>
       <c r="D147" s="1"/>
@@ -16412,7 +16412,7 @@
       <c r="AF147" s="41"/>
       <c r="AG147" s="41"/>
     </row>
-    <row r="148" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B148" s="1"/>
       <c r="C148" s="9"/>
       <c r="D148" s="1"/>
@@ -16431,79 +16431,79 @@
       <c r="AF148" s="41"/>
       <c r="AG148" s="41"/>
     </row>
-    <row r="149" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C153" s="4"/>
     </row>
-    <row r="154" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C154" s="4"/>
     </row>
-    <row r="155" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C156" s="4"/>
     </row>
-    <row r="157" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C157" s="4"/>
     </row>
-    <row r="158" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C159" s="4"/>
     </row>
-    <row r="160" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C160" s="4"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C161" s="4"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" s="4"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C163" s="4"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" s="7"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" s="7"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" s="7"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" s="7"/>
     </row>
   </sheetData>
@@ -16552,12 +16552,12 @@
       <selection activeCell="F79" sqref="F79:F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="1.625" customWidth="1"/>
+    <col min="3" max="4" width="1.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>0.18794257366143599</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>0.17408963378252401</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>0.136359594886345</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>0.14323081799528301</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>0.107573048084248</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>0.11977500939784901</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>8.2365462189308195E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>0.21507287282457299</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>0.212956681902151</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>0.124726837433575</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>0.101915876144567</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>5.1220733694157902E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>0.185273390531835</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>0.17643136735305201</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>0.188798233052107</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>0.17091927996211001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>9.68416927296432E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>5.0169259825251999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>4.4171545954597602E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>0.13753825715960999</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>0.190169122725484</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>0.17358886840760901</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>8.0468320529730603E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>4.4410182501847001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>0.16681019880307901</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>0.26030498002428698</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>0.25342341693293002</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>0.176350796765981</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>9.1409714916936793E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>5.4982154316291998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>0.22673498702525499</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>0.100162587441415</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -18359,7 +18359,7 @@
         <v>0.20105975190598399</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -18412,7 +18412,7 @@
         <v>0.23058907507974799</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>7.14773721744002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>4.7941158640465199E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>0.15529782958104801</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -18624,7 +18624,7 @@
         <v>0.29884746190037798</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -18677,7 +18677,7 @@
         <v>0.19620098064906899</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -18730,7 +18730,7 @@
         <v>0.15510639385335501</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>2.4771064345590701E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>0.213191130784563</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>0.52232350742548195</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>0.51561743644459301</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>0.52672865245120803</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>0.238251438278931</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>9.9363896740060201E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>0.28602924608904001</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
@@ -19207,7 +19207,7 @@
         <v>0.37734044088274599</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>0.45391517065648201</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>0.33772304741826498</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>0.165363378721336</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>6.12783430712706E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>0.29348283537470699</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>0.57240065834102405</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>0.46075901055867102</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>0.67491287760428598</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>0.24628336191184899</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>0.420487389846394</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>0.537025914310724</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>0.594939621957701</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
@@ -19949,7 +19949,7 @@
         <v>0.479617521845907</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>0.35733057525852302</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>7.41332143606762E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>5</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>0.44988492034621003</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>5</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>0.40260465184923799</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5</v>
       </c>
@@ -20214,7 +20214,7 @@
         <v>0.30154438527979799</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>0.26726239386080503</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>0.19122199919351199</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>9.4852522401648307E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>0.42817497201597698</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>0.41487344254838998</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5</v>
       </c>
@@ -20532,7 +20532,7 @@
         <v>0.31029111004980903</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
@@ -20585,7 +20585,7 @@
         <v>0.224835344530885</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>6.63473058592388E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>0.398759923264497</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>0.59399744970560497</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5</v>
       </c>
@@ -20847,7 +20847,7 @@
         <v>0.62756964086042999</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5</v>
       </c>
@@ -20900,7 +20900,7 @@
         <v>0.26585673171226598</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>0.18799905458964</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>0.45924896507399499</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>0.49583959896908603</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>0.26014865958522998</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5</v>
       </c>
@@ -21215,7 +21215,7 @@
         <v>0.50730731807718499</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
